--- a/playoffs-example-large.xlsx
+++ b/playoffs-example-large.xlsx
@@ -4066,192 +4066,192 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="E2" s="24" t="s">
+    <row r="3">
+      <c r="E3" s="24" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="3">
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
-    </row>
     <row r="4">
-      <c r="G4" s="21">
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="21">
         <v>28</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-    </row>
     <row r="6">
-      <c r="E6" s="24" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7">
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
-      <c r="I8" s="21">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="I9" s="21">
         <v>60</v>
       </c>
     </row>
-    <row r="9">
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
-    </row>
     <row r="10">
-      <c r="E10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="G12" s="21">
-        <v>29</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="C13" s="24" t="s">
+      <c r="G13" s="21">
+        <v>29</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="K16" s="21">
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="21">
         <v>76</v>
       </c>
     </row>
-    <row r="17">
-      <c r="K17" s="20"/>
-    </row>
     <row r="18">
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="G20" s="21">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="21">
         <v>30</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="24" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>2</v>
-      </c>
-      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="C23" s="24" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>2</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="I24" s="21">
+      <c r="C24" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="21">
         <v>61</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="E26" s="24" t="s">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="G28" s="21">
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="21">
         <v>31</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="24" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
         <v>3</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="24" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -4276,192 +4276,192 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="E2" s="24" t="s">
+    <row r="3">
+      <c r="E3" s="24" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="3">
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
-    </row>
     <row r="4">
-      <c r="G4" s="21">
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="21">
         <v>32</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-    </row>
     <row r="6">
-      <c r="E6" s="24" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="24" t="s">
         <v>45</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7">
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
-      <c r="I8" s="21">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="I9" s="21">
         <v>62</v>
       </c>
     </row>
-    <row r="9">
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
-    </row>
     <row r="10">
-      <c r="E10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="G12" s="21">
-        <v>33</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="C13" s="24" t="s">
+      <c r="G13" s="21">
+        <v>33</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>4</v>
-      </c>
-      <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>4</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="24" t="s">
         <v>51</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="K16" s="21">
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="21">
         <v>77</v>
       </c>
     </row>
-    <row r="17">
-      <c r="K17" s="20"/>
-    </row>
     <row r="18">
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="G20" s="21">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="21">
         <v>34</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="24" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="24" t="s">
         <v>55</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>5</v>
-      </c>
-      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="C23" s="24" t="s">
-        <v>57</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>5</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="I24" s="21">
+      <c r="C24" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="21">
         <v>63</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="E26" s="24" t="s">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="G28" s="21">
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="21">
         <v>35</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="24" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="24" t="s">
         <v>61</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
         <v>6</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="24" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="24" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -4486,192 +4486,192 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="E2" s="24" t="s">
+    <row r="3">
+      <c r="E3" s="24" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="3">
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
-    </row>
     <row r="4">
-      <c r="G4" s="21">
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="21">
         <v>36</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-    </row>
     <row r="6">
-      <c r="E6" s="24" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="24" t="s">
         <v>70</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7">
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
-      <c r="I8" s="21">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="I9" s="21">
         <v>64</v>
       </c>
     </row>
-    <row r="9">
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
-    </row>
     <row r="10">
-      <c r="E10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="G12" s="21">
-        <v>37</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="C13" s="24" t="s">
+      <c r="G13" s="21">
+        <v>37</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>7</v>
-      </c>
-      <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>7</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="24" t="s">
         <v>78</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="K16" s="21">
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="21">
         <v>78</v>
       </c>
     </row>
-    <row r="17">
-      <c r="K17" s="20"/>
-    </row>
     <row r="18">
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="24" t="s">
         <v>80</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="G20" s="21">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="21">
         <v>38</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="24" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>8</v>
-      </c>
-      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="C23" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>8</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="I24" s="21">
+      <c r="C24" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="21">
         <v>65</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="E26" s="24" t="s">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="G28" s="21">
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="21">
         <v>39</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="24" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
         <v>9</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="24" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -4696,201 +4696,201 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="E2" s="24" t="s">
+    <row r="3">
+      <c r="E3" s="24" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="3">
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
-    </row>
     <row r="4">
-      <c r="G4" s="21">
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="21">
         <v>40</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="24" t="s">
+    <row r="6">
+      <c r="C6" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="22"/>
-      <c r="E6" s="21">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="22"/>
+      <c r="E7" s="21">
         <v>10</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="24" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="C8" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8">
-      <c r="I8" s="21">
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="I9" s="21">
         <v>66</v>
       </c>
     </row>
-    <row r="9">
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
-    </row>
     <row r="10">
-      <c r="E10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="G12" s="21">
-        <v>41</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="C13" s="24" t="s">
+      <c r="G13" s="21">
+        <v>41</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>11</v>
-      </c>
-      <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>11</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="24" t="s">
         <v>102</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="K16" s="21">
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="21">
         <v>79</v>
       </c>
     </row>
-    <row r="17">
-      <c r="K17" s="20"/>
-    </row>
     <row r="18">
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="G20" s="21">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="21">
         <v>42</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="24" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="24" t="s">
         <v>106</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>12</v>
-      </c>
-      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="C23" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>12</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="I24" s="21">
+      <c r="C24" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="21">
         <v>67</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="E26" s="24" t="s">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="24" t="s">
         <v>110</v>
       </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="G28" s="21">
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="21">
         <v>43</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="24" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="24" t="s">
         <v>112</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
         <v>13</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="24" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -4915,192 +4915,192 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="E2" s="24" t="s">
+    <row r="3">
+      <c r="E3" s="24" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="3">
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
-    </row>
     <row r="4">
-      <c r="G4" s="21">
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="21">
         <v>44</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-    </row>
     <row r="6">
-      <c r="E6" s="24" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="24" t="s">
         <v>118</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7">
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
-      <c r="I8" s="21">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="I9" s="21">
         <v>68</v>
       </c>
     </row>
-    <row r="9">
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
-    </row>
     <row r="10">
-      <c r="E10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="24" t="s">
         <v>120</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="G12" s="21">
-        <v>45</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="C13" s="24" t="s">
+      <c r="G13" s="21">
+        <v>45</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="24" t="s">
         <v>122</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>14</v>
-      </c>
-      <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>14</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="K16" s="21">
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="21">
         <v>80</v>
       </c>
     </row>
-    <row r="17">
-      <c r="K17" s="20"/>
-    </row>
     <row r="18">
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="24" t="s">
         <v>126</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="G20" s="21">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="21">
         <v>46</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="24" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="24" t="s">
         <v>129</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>15</v>
-      </c>
-      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="C23" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>15</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="I24" s="21">
+      <c r="C24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="21">
         <v>69</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="E26" s="24" t="s">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="G28" s="21">
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="21">
         <v>47</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="24" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
         <v>16</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="24" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -5125,201 +5125,201 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="E2" s="24" t="s">
+    <row r="3">
+      <c r="E3" s="24" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="3">
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
-    </row>
     <row r="4">
-      <c r="G4" s="21">
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="21">
         <v>48</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="24" t="s">
+    <row r="6">
+      <c r="C6" s="24" t="s">
         <v>147</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="22"/>
-      <c r="E6" s="21">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="22"/>
+      <c r="E7" s="21">
         <v>17</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="24" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="C8" s="24" t="s">
         <v>150</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8">
-      <c r="I8" s="21">
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="I9" s="21">
         <v>70</v>
       </c>
     </row>
-    <row r="9">
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
-    </row>
     <row r="10">
-      <c r="E10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="G12" s="21">
-        <v>49</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="C13" s="24" t="s">
+      <c r="G13" s="21">
+        <v>49</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="24" t="s">
         <v>156</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>18</v>
-      </c>
-      <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>18</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="24" t="s">
         <v>159</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="K16" s="21">
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="21">
         <v>81</v>
       </c>
     </row>
-    <row r="17">
-      <c r="K17" s="20"/>
-    </row>
     <row r="18">
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="24" t="s">
         <v>162</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="G20" s="21">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="21">
         <v>50</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="24" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="24" t="s">
         <v>165</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>19</v>
-      </c>
-      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="C23" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>19</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="I24" s="21">
+      <c r="C24" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="21">
         <v>71</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="E26" s="24" t="s">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="24" t="s">
         <v>170</v>
       </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="G28" s="21">
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="21">
         <v>51</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="24" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="24" t="s">
         <v>172</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
         <v>20</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="24" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="24" t="s">
         <v>174</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -5344,192 +5344,192 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="E2" s="24" t="s">
+    <row r="3">
+      <c r="E3" s="24" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="3">
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
-    </row>
     <row r="4">
-      <c r="G4" s="21">
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="21">
         <v>52</v>
       </c>
     </row>
-    <row r="5">
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-    </row>
     <row r="6">
-      <c r="E6" s="24" t="s">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="E7" s="24" t="s">
         <v>178</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7">
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
       <c r="I7" s="20"/>
     </row>
     <row r="8">
-      <c r="I8" s="21">
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="I9" s="21">
         <v>72</v>
       </c>
     </row>
-    <row r="9">
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
-    </row>
     <row r="10">
-      <c r="E10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="24" t="s">
         <v>180</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="G12" s="21">
-        <v>53</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="C13" s="24" t="s">
+      <c r="G13" s="21">
+        <v>53</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="24" t="s">
         <v>182</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>21</v>
-      </c>
-      <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>21</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="24" t="s">
         <v>184</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="K16" s="21">
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="21">
         <v>82</v>
       </c>
     </row>
-    <row r="17">
-      <c r="K17" s="20"/>
-    </row>
     <row r="18">
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="24" t="s">
         <v>186</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="G20" s="21">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="21">
         <v>54</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="24" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="24" t="s">
         <v>188</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>22</v>
-      </c>
-      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="C23" s="24" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>22</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="I24" s="21">
+      <c r="C24" s="24" t="s">
+        <v>190</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="21">
         <v>73</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="E26" s="24" t="s">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="24" t="s">
         <v>192</v>
       </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="G28" s="21">
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="21">
         <v>55</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="24" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
         <v>23</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="24" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>
@@ -5554,201 +5554,201 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
-    <row r="2">
-      <c r="E2" s="24" t="s">
+    <row r="3">
+      <c r="E3" s="24" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="3">
-      <c r="F3" s="22"/>
-      <c r="G3" s="20"/>
-    </row>
     <row r="4">
-      <c r="G4" s="21">
+      <c r="F4" s="22"/>
+      <c r="G4" s="20"/>
+    </row>
+    <row r="5">
+      <c r="G5" s="21">
         <v>56</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5" s="24" t="s">
+    <row r="6">
+      <c r="C6" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="G5" s="20"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="20"/>
-    </row>
-    <row r="6">
-      <c r="D6" s="22"/>
-      <c r="E6" s="21">
+      <c r="G6" s="20"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="20"/>
+    </row>
+    <row r="7">
+      <c r="D7" s="22"/>
+      <c r="E7" s="21">
         <v>24</v>
       </c>
-      <c r="F6" s="23"/>
-      <c r="G6" s="20"/>
-      <c r="I6" s="20"/>
-    </row>
-    <row r="7">
-      <c r="C7" s="24" t="s">
+      <c r="F7" s="23"/>
+      <c r="G7" s="20"/>
+      <c r="I7" s="20"/>
+    </row>
+    <row r="8">
+      <c r="C8" s="24" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="23"/>
-      <c r="E7" s="20"/>
-      <c r="I7" s="20"/>
-    </row>
-    <row r="8">
-      <c r="I8" s="21">
+      <c r="D8" s="23"/>
+      <c r="E8" s="20"/>
+      <c r="I8" s="20"/>
+    </row>
+    <row r="9">
+      <c r="I9" s="21">
         <v>74</v>
       </c>
     </row>
-    <row r="9">
-      <c r="I9" s="20"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="20"/>
-    </row>
     <row r="10">
-      <c r="E10" s="24" t="s">
+      <c r="I10" s="20"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="20"/>
+    </row>
+    <row r="11">
+      <c r="E11" s="24" t="s">
         <v>204</v>
       </c>
-      <c r="I10" s="20"/>
-      <c r="K10" s="20"/>
-    </row>
-    <row r="11">
-      <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
       <c r="I11" s="20"/>
       <c r="K11" s="20"/>
     </row>
     <row r="12">
-      <c r="G12" s="21">
-        <v>57</v>
-      </c>
-      <c r="H12" s="23"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20"/>
       <c r="I12" s="20"/>
       <c r="K12" s="20"/>
     </row>
     <row r="13">
-      <c r="C13" s="24" t="s">
+      <c r="G13" s="21">
+        <v>57</v>
+      </c>
+      <c r="H13" s="23"/>
+      <c r="I13" s="20"/>
+      <c r="K13" s="20"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="24" t="s">
         <v>206</v>
       </c>
-      <c r="G13" s="20"/>
-      <c r="K13" s="20"/>
-    </row>
-    <row r="14">
-      <c r="D14" s="22"/>
-      <c r="E14" s="21">
-        <v>25</v>
-      </c>
-      <c r="F14" s="23"/>
       <c r="G14" s="20"/>
       <c r="K14" s="20"/>
     </row>
     <row r="15">
-      <c r="C15" s="24" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="21">
+        <v>25</v>
+      </c>
+      <c r="F15" s="23"/>
+      <c r="G15" s="20"/>
+      <c r="K15" s="20"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="24" t="s">
         <v>208</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="20"/>
-      <c r="K15" s="20"/>
-    </row>
-    <row r="16">
-      <c r="K16" s="21">
+      <c r="D16" s="23"/>
+      <c r="E16" s="20"/>
+      <c r="K16" s="20"/>
+    </row>
+    <row r="17">
+      <c r="K17" s="21">
         <v>83</v>
       </c>
     </row>
-    <row r="17">
-      <c r="K17" s="20"/>
-    </row>
     <row r="18">
-      <c r="E18" s="24" t="s">
+      <c r="K18" s="20"/>
+    </row>
+    <row r="19">
+      <c r="E19" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="K18" s="20"/>
-    </row>
-    <row r="19">
-      <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
       <c r="K19" s="20"/>
     </row>
     <row r="20">
-      <c r="G20" s="21">
+      <c r="F20" s="22"/>
+      <c r="G20" s="20"/>
+      <c r="K20" s="20"/>
+    </row>
+    <row r="21">
+      <c r="G21" s="21">
         <v>58</v>
       </c>
-      <c r="K20" s="20"/>
-    </row>
-    <row r="21">
-      <c r="C21" s="24" t="s">
+      <c r="K21" s="20"/>
+    </row>
+    <row r="22">
+      <c r="C22" s="24" t="s">
         <v>212</v>
       </c>
-      <c r="G21" s="20"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="20"/>
-      <c r="K21" s="20"/>
-    </row>
-    <row r="22">
-      <c r="D22" s="22"/>
-      <c r="E22" s="21">
-        <v>26</v>
-      </c>
-      <c r="F22" s="23"/>
       <c r="G22" s="20"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="20"/>
       <c r="K22" s="20"/>
     </row>
     <row r="23">
-      <c r="C23" s="24" t="s">
-        <v>214</v>
-      </c>
-      <c r="D23" s="23"/>
-      <c r="E23" s="20"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="21">
+        <v>26</v>
+      </c>
+      <c r="F23" s="23"/>
+      <c r="G23" s="20"/>
       <c r="I23" s="20"/>
       <c r="K23" s="20"/>
     </row>
     <row r="24">
-      <c r="I24" s="21">
+      <c r="C24" s="24" t="s">
+        <v>214</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="E24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="K24" s="20"/>
+    </row>
+    <row r="25">
+      <c r="I25" s="21">
         <v>75</v>
       </c>
-      <c r="J24" s="23"/>
-      <c r="K24" s="20"/>
-    </row>
-    <row r="25">
-      <c r="I25" s="20"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="20"/>
     </row>
     <row r="26">
-      <c r="E26" s="24" t="s">
+      <c r="I26" s="20"/>
+    </row>
+    <row r="27">
+      <c r="E27" s="24" t="s">
         <v>216</v>
       </c>
-      <c r="I26" s="20"/>
-    </row>
-    <row r="27">
-      <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
       <c r="I27" s="20"/>
     </row>
     <row r="28">
-      <c r="G28" s="21">
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+      <c r="I28" s="20"/>
+    </row>
+    <row r="29">
+      <c r="G29" s="21">
         <v>59</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="20"/>
-    </row>
-    <row r="29">
-      <c r="C29" s="24" t="s">
+      <c r="H29" s="23"/>
+      <c r="I29" s="20"/>
+    </row>
+    <row r="30">
+      <c r="C30" s="24" t="s">
         <v>218</v>
       </c>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30">
-      <c r="D30" s="22"/>
-      <c r="E30" s="21">
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31">
+      <c r="D31" s="22"/>
+      <c r="E31" s="21">
         <v>27</v>
       </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31">
-      <c r="C31" s="24" t="s">
+      <c r="F31" s="23"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32">
+      <c r="C32" s="24" t="s">
         <v>220</v>
       </c>
-      <c r="D31" s="23"/>
-      <c r="E31" s="20"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="20"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="true" verticalCentered="true"/>

--- a/playoffs-example-large.xlsx
+++ b/playoffs-example-large.xlsx
@@ -649,7 +649,7 @@
     <t>Othello</t>
   </si>
   <si>
-    <t>O. OTHELLO</t>
+    <t>OTHELLO</t>
   </si>
   <si>
     <t>Petyr Baelish</t>
@@ -685,13 +685,13 @@
     <t>Ulysses</t>
   </si>
   <si>
-    <t>U. ULYSSES</t>
+    <t>ULYSSES</t>
   </si>
   <si>
     <t>Voldemort</t>
   </si>
   <si>
-    <t>V. VOLDEMORT</t>
+    <t>VOLDEMORT</t>
   </si>
   <si>
     <t>Willy Wonka</t>
@@ -709,7 +709,7 @@
     <t>Ygritte</t>
   </si>
   <si>
-    <t>Y. YGRITTE</t>
+    <t>YGRITTE</t>
   </si>
   <si>
     <t>Match 1</t>

--- a/playoffs-example-large.xlsx
+++ b/playoffs-example-large.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -1637,60 +1637,60 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<theme xmlns="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
-  <themeElements>
-    <clrScheme name="Sheets">
-      <dk1>
-        <srgbClr val="000000"/>
-      </dk1>
-      <lt1>
-        <srgbClr val="FFFFFF"/>
-      </lt1>
-      <dk2>
-        <srgbClr val="000000"/>
-      </dk2>
-      <lt2>
-        <srgbClr val="FFFFFF"/>
-      </lt2>
-      <accent1>
-        <srgbClr val="4F81BD"/>
-      </accent1>
-      <accent2>
-        <srgbClr val="C0504D"/>
-      </accent2>
-      <accent3>
-        <srgbClr val="9BBB59"/>
-      </accent3>
-      <accent4>
-        <srgbClr val="8064A2"/>
-      </accent4>
-      <accent5>
-        <srgbClr val="4BACC6"/>
-      </accent5>
-      <accent6>
-        <srgbClr val="F79646"/>
-      </accent6>
-      <hlink>
-        <srgbClr val="0000FF"/>
-      </hlink>
-      <folHlink>
-        <srgbClr val="0000FF"/>
-      </folHlink>
-    </clrScheme>
-    <fontScheme name="Sheets">
-      <majorFont>
-        <latin typeface="Arial"/>
-        <ea typeface="Arial"/>
-        <cs typeface="Arial"/>
-      </majorFont>
-      <minorFont>
-        <latin typeface="Arial"/>
-        <ea typeface="Arial"/>
-        <cs typeface="Arial"/>
-      </minorFont>
-    </fontScheme>
-    <fmtScheme name="Office">
-      <fillStyleLst>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+  <a:themeElements>
+    <a:clrScheme name="Sheets">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="FFFFFF"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="0000FF"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Sheets">
+      <a:majorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1746,8 +1746,8 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </fillStyleLst>
-      <lnStyleLst>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
         <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1769,8 +1769,8 @@
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-      </lnStyleLst>
-      <effectStyleLst>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
         <a:effectStyle>
           <a:effectLst/>
         </a:effectStyle>
@@ -1786,8 +1786,8 @@
             </a:outerShdw>
           </a:effectLst>
         </a:effectStyle>
-      </effectStyleLst>
-      <bgFillStyleLst>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1824,12 +1824,12 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-      </bgFillStyleLst>
-    </fmtScheme>
-  </themeElements>
-  <objectDefaults/>
-  <extraClrSchemeLst/>
-</theme>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4066,6 +4066,8 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="E3" s="24" t="s">
         <v>17</v>
@@ -4276,6 +4278,8 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="E3" s="24" t="s">
         <v>43</v>
@@ -4486,6 +4490,8 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="E3" s="24" t="s">
         <v>67</v>
@@ -4696,6 +4702,8 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="E3" s="24" t="s">
         <v>92</v>
@@ -4915,6 +4923,8 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="E3" s="24" t="s">
         <v>116</v>
@@ -5125,6 +5135,8 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="E3" s="24" t="s">
         <v>144</v>
@@ -5344,6 +5356,8 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="E3" s="24" t="s">
         <v>176</v>
@@ -5554,6 +5568,8 @@
     <col customWidth="true" max="2" min="2" width="10"/>
   </cols>
   <sheetData>
+    <row r="1"/>
+    <row r="2"/>
     <row r="3">
       <c r="E3" s="24" t="s">
         <v>198</v>
@@ -6011,6 +6027,7 @@
       <c r="N1" s="27"/>
       <c r="O1" s="27"/>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="27" t="s">
         <v>221</v>
@@ -6053,7 +6070,7 @@
     </row>
     <row r="5">
       <c r="A5" s="29" t="str">
-        <f>'data'!B5</f>
+        <f>'data'!$B$5</f>
       </c>
       <c r="B5" s="29"/>
       <c r="C5" s="29"/>
@@ -6061,10 +6078,10 @@
       <c r="E5" s="29"/>
       <c r="F5" s="29"/>
       <c r="G5" s="29" t="str">
-        <f>'data'!B6</f>
+        <f>'data'!$B$6</f>
       </c>
       <c r="I5" s="29" t="str">
-        <f>'data'!B8</f>
+        <f>'data'!$B$8</f>
       </c>
       <c r="J5" s="29"/>
       <c r="K5" s="29"/>
@@ -6072,9 +6089,10 @@
       <c r="M5" s="29"/>
       <c r="N5" s="29"/>
       <c r="O5" s="29" t="str">
-        <f>'data'!B9</f>
-      </c>
-    </row>
+        <f>'data'!$B$9</f>
+      </c>
+    </row>
+    <row r="6"/>
     <row r="7">
       <c r="F7" s="7" t="s">
         <v>225</v>
@@ -6095,6 +6113,8 @@
       </c>
       <c r="O8" s="23"/>
     </row>
+    <row r="9"/>
+    <row r="10"/>
     <row r="11">
       <c r="A11" s="27" t="s">
         <v>228</v>
@@ -6137,7 +6157,7 @@
     </row>
     <row r="13">
       <c r="A13" s="29" t="str">
-        <f>'data'!B11</f>
+        <f>'data'!$B$11</f>
       </c>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -6145,10 +6165,10 @@
       <c r="E13" s="29"/>
       <c r="F13" s="29"/>
       <c r="G13" s="29" t="str">
-        <f>'data'!B12</f>
+        <f>'data'!$B$12</f>
       </c>
       <c r="I13" s="29" t="str">
-        <f>'data'!B16</f>
+        <f>'data'!$B$16</f>
       </c>
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
@@ -6156,9 +6176,10 @@
       <c r="M13" s="29"/>
       <c r="N13" s="29"/>
       <c r="O13" s="29" t="str">
-        <f>'data'!B17</f>
-      </c>
-    </row>
+        <f>'data'!$B$17</f>
+      </c>
+    </row>
+    <row r="14"/>
     <row r="15">
       <c r="F15" s="7" t="s">
         <v>225</v>
@@ -6179,6 +6200,8 @@
       </c>
       <c r="O16" s="23"/>
     </row>
+    <row r="17"/>
+    <row r="18"/>
     <row r="19">
       <c r="A19" s="27" t="s">
         <v>230</v>
@@ -6221,7 +6244,7 @@
     </row>
     <row r="21">
       <c r="A21" s="29" t="str">
-        <f>'data'!B19</f>
+        <f>'data'!$B$19</f>
       </c>
       <c r="B21" s="29"/>
       <c r="C21" s="29"/>
@@ -6229,10 +6252,10 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
       <c r="G21" s="29" t="str">
-        <f>'data'!B20</f>
+        <f>'data'!$B$20</f>
       </c>
       <c r="I21" s="29" t="str">
-        <f>'data'!B22</f>
+        <f>'data'!$B$22</f>
       </c>
       <c r="J21" s="29"/>
       <c r="K21" s="29"/>
@@ -6240,9 +6263,10 @@
       <c r="M21" s="29"/>
       <c r="N21" s="29"/>
       <c r="O21" s="29" t="str">
-        <f>'data'!B23</f>
-      </c>
-    </row>
+        <f>'data'!$B$23</f>
+      </c>
+    </row>
+    <row r="22"/>
     <row r="23">
       <c r="F23" s="7" t="s">
         <v>225</v>
@@ -6263,6 +6287,8 @@
       </c>
       <c r="O24" s="23"/>
     </row>
+    <row r="25"/>
+    <row r="26"/>
     <row r="27">
       <c r="A27" s="27" t="s">
         <v>232</v>
@@ -6305,7 +6331,7 @@
     </row>
     <row r="29">
       <c r="A29" s="29" t="str">
-        <f>'data'!B27</f>
+        <f>'data'!$B$27</f>
       </c>
       <c r="B29" s="29"/>
       <c r="C29" s="29"/>
@@ -6313,10 +6339,10 @@
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
       <c r="G29" s="29" t="str">
-        <f>'data'!B28</f>
+        <f>'data'!$B$28</f>
       </c>
       <c r="I29" s="29" t="str">
-        <f>'data'!B30</f>
+        <f>'data'!$B$30</f>
       </c>
       <c r="J29" s="29"/>
       <c r="K29" s="29"/>
@@ -6324,9 +6350,10 @@
       <c r="M29" s="29"/>
       <c r="N29" s="29"/>
       <c r="O29" s="29" t="str">
-        <f>'data'!B31</f>
-      </c>
-    </row>
+        <f>'data'!$B$31</f>
+      </c>
+    </row>
+    <row r="30"/>
     <row r="31">
       <c r="F31" s="7" t="s">
         <v>225</v>
@@ -6347,6 +6374,8 @@
       </c>
       <c r="O32" s="23"/>
     </row>
+    <row r="33"/>
+    <row r="34"/>
     <row r="35">
       <c r="A35" s="27" t="s">
         <v>234</v>
@@ -6389,7 +6418,7 @@
     </row>
     <row r="37">
       <c r="A37" s="29" t="str">
-        <f>'data'!B33</f>
+        <f>'data'!$B$33</f>
       </c>
       <c r="B37" s="29"/>
       <c r="C37" s="29"/>
@@ -6397,10 +6426,10 @@
       <c r="E37" s="29"/>
       <c r="F37" s="29"/>
       <c r="G37" s="29" t="str">
-        <f>'data'!B34</f>
+        <f>'data'!$B$34</f>
       </c>
       <c r="I37" s="29" t="str">
-        <f>'data'!B36</f>
+        <f>'data'!$B$36</f>
       </c>
       <c r="J37" s="29"/>
       <c r="K37" s="29"/>
@@ -6408,9 +6437,10 @@
       <c r="M37" s="29"/>
       <c r="N37" s="29"/>
       <c r="O37" s="29" t="str">
-        <f>'data'!B37</f>
-      </c>
-    </row>
+        <f>'data'!$B$37</f>
+      </c>
+    </row>
+    <row r="38"/>
     <row r="39">
       <c r="F39" s="7" t="s">
         <v>225</v>
@@ -6431,6 +6461,8 @@
       </c>
       <c r="O40" s="23"/>
     </row>
+    <row r="41"/>
+    <row r="42"/>
     <row r="43">
       <c r="A43" s="27" t="s">
         <v>236</v>
@@ -6473,7 +6505,7 @@
     </row>
     <row r="45">
       <c r="A45" s="29" t="str">
-        <f>'data'!B39</f>
+        <f>'data'!$B$39</f>
       </c>
       <c r="B45" s="29"/>
       <c r="C45" s="29"/>
@@ -6481,10 +6513,10 @@
       <c r="E45" s="29"/>
       <c r="F45" s="29"/>
       <c r="G45" s="29" t="str">
-        <f>'data'!B40</f>
+        <f>'data'!$B$40</f>
       </c>
       <c r="I45" s="29" t="str">
-        <f>'data'!B42</f>
+        <f>'data'!$B$42</f>
       </c>
       <c r="J45" s="29"/>
       <c r="K45" s="29"/>
@@ -6492,9 +6524,10 @@
       <c r="M45" s="29"/>
       <c r="N45" s="29"/>
       <c r="O45" s="29" t="str">
-        <f>'data'!B43</f>
-      </c>
-    </row>
+        <f>'data'!$B$43</f>
+      </c>
+    </row>
+    <row r="46"/>
     <row r="47">
       <c r="F47" s="7" t="s">
         <v>225</v>
@@ -6515,6 +6548,8 @@
       </c>
       <c r="O48" s="23"/>
     </row>
+    <row r="49"/>
+    <row r="50"/>
     <row r="51">
       <c r="A51" s="27" t="s">
         <v>238</v>
@@ -6557,7 +6592,7 @@
     </row>
     <row r="53">
       <c r="A53" s="29" t="str">
-        <f>'data'!B45</f>
+        <f>'data'!$B$45</f>
       </c>
       <c r="B53" s="29"/>
       <c r="C53" s="29"/>
@@ -6565,10 +6600,10 @@
       <c r="E53" s="29"/>
       <c r="F53" s="29"/>
       <c r="G53" s="29" t="str">
-        <f>'data'!B46</f>
+        <f>'data'!$B$46</f>
       </c>
       <c r="I53" s="29" t="str">
-        <f>'data'!B50</f>
+        <f>'data'!$B$50</f>
       </c>
       <c r="J53" s="29"/>
       <c r="K53" s="29"/>
@@ -6576,9 +6611,10 @@
       <c r="M53" s="29"/>
       <c r="N53" s="29"/>
       <c r="O53" s="29" t="str">
-        <f>'data'!B51</f>
-      </c>
-    </row>
+        <f>'data'!$B$51</f>
+      </c>
+    </row>
+    <row r="54"/>
     <row r="55">
       <c r="F55" s="7" t="s">
         <v>225</v>
@@ -6599,6 +6635,8 @@
       </c>
       <c r="O56" s="23"/>
     </row>
+    <row r="57"/>
+    <row r="58"/>
     <row r="59">
       <c r="A59" s="27" t="s">
         <v>240</v>
@@ -6641,7 +6679,7 @@
     </row>
     <row r="61">
       <c r="A61" s="29" t="str">
-        <f>'data'!B53</f>
+        <f>'data'!$B$53</f>
       </c>
       <c r="B61" s="29"/>
       <c r="C61" s="29"/>
@@ -6649,10 +6687,10 @@
       <c r="E61" s="29"/>
       <c r="F61" s="29"/>
       <c r="G61" s="29" t="str">
-        <f>'data'!B54</f>
+        <f>'data'!$B$54</f>
       </c>
       <c r="I61" s="29" t="str">
-        <f>'data'!B56</f>
+        <f>'data'!$B$56</f>
       </c>
       <c r="J61" s="29"/>
       <c r="K61" s="29"/>
@@ -6660,9 +6698,10 @@
       <c r="M61" s="29"/>
       <c r="N61" s="29"/>
       <c r="O61" s="29" t="str">
-        <f>'data'!B57</f>
-      </c>
-    </row>
+        <f>'data'!$B$57</f>
+      </c>
+    </row>
+    <row r="62"/>
     <row r="63">
       <c r="F63" s="7" t="s">
         <v>225</v>
@@ -6683,6 +6722,8 @@
       </c>
       <c r="O64" s="23"/>
     </row>
+    <row r="65"/>
+    <row r="66"/>
     <row r="67">
       <c r="A67" s="27" t="s">
         <v>242</v>
@@ -6725,7 +6766,7 @@
     </row>
     <row r="69">
       <c r="A69" s="29" t="str">
-        <f>'data'!B59</f>
+        <f>'data'!$B$59</f>
       </c>
       <c r="B69" s="29"/>
       <c r="C69" s="29"/>
@@ -6733,10 +6774,10 @@
       <c r="E69" s="29"/>
       <c r="F69" s="29"/>
       <c r="G69" s="29" t="str">
-        <f>'data'!B60</f>
+        <f>'data'!$B$60</f>
       </c>
       <c r="I69" s="29" t="str">
-        <f>'data'!B62</f>
+        <f>'data'!$B$62</f>
       </c>
       <c r="J69" s="29"/>
       <c r="K69" s="29"/>
@@ -6744,9 +6785,10 @@
       <c r="M69" s="29"/>
       <c r="N69" s="29"/>
       <c r="O69" s="29" t="str">
-        <f>'data'!B63</f>
-      </c>
-    </row>
+        <f>'data'!$B$63</f>
+      </c>
+    </row>
+    <row r="70"/>
     <row r="71">
       <c r="F71" s="7" t="s">
         <v>225</v>
@@ -6767,6 +6809,8 @@
       </c>
       <c r="O72" s="23"/>
     </row>
+    <row r="73"/>
+    <row r="74"/>
     <row r="75">
       <c r="A75" s="27" t="s">
         <v>244</v>
@@ -6809,7 +6853,7 @@
     </row>
     <row r="77">
       <c r="A77" s="29" t="str">
-        <f>'data'!B65</f>
+        <f>'data'!$B$65</f>
       </c>
       <c r="B77" s="29"/>
       <c r="C77" s="29"/>
@@ -6817,10 +6861,10 @@
       <c r="E77" s="29"/>
       <c r="F77" s="29"/>
       <c r="G77" s="29" t="str">
-        <f>'data'!B66</f>
+        <f>'data'!$B$66</f>
       </c>
       <c r="I77" s="29" t="str">
-        <f>'data'!B68</f>
+        <f>'data'!$B$68</f>
       </c>
       <c r="J77" s="29"/>
       <c r="K77" s="29"/>
@@ -6828,9 +6872,10 @@
       <c r="M77" s="29"/>
       <c r="N77" s="29"/>
       <c r="O77" s="29" t="str">
-        <f>'data'!B69</f>
-      </c>
-    </row>
+        <f>'data'!$B$69</f>
+      </c>
+    </row>
+    <row r="78"/>
     <row r="79">
       <c r="F79" s="7" t="s">
         <v>225</v>
@@ -6851,6 +6896,8 @@
       </c>
       <c r="O80" s="23"/>
     </row>
+    <row r="81"/>
+    <row r="82"/>
     <row r="83">
       <c r="A83" s="27" t="s">
         <v>246</v>
@@ -6893,7 +6940,7 @@
     </row>
     <row r="85">
       <c r="A85" s="29" t="str">
-        <f>'data'!B73</f>
+        <f>'data'!$B$73</f>
       </c>
       <c r="B85" s="29"/>
       <c r="C85" s="29"/>
@@ -6901,10 +6948,10 @@
       <c r="E85" s="29"/>
       <c r="F85" s="29"/>
       <c r="G85" s="29" t="str">
-        <f>'data'!B74</f>
+        <f>'data'!$B$74</f>
       </c>
       <c r="I85" s="29" t="str">
-        <f>'data'!B76</f>
+        <f>'data'!$B$76</f>
       </c>
       <c r="J85" s="29"/>
       <c r="K85" s="29"/>
@@ -6912,9 +6959,10 @@
       <c r="M85" s="29"/>
       <c r="N85" s="29"/>
       <c r="O85" s="29" t="str">
-        <f>'data'!B77</f>
-      </c>
-    </row>
+        <f>'data'!$B$77</f>
+      </c>
+    </row>
+    <row r="86"/>
     <row r="87">
       <c r="F87" s="7" t="s">
         <v>225</v>
@@ -6935,6 +6983,8 @@
       </c>
       <c r="O88" s="23"/>
     </row>
+    <row r="89"/>
+    <row r="90"/>
     <row r="91">
       <c r="A91" s="27" t="s">
         <v>248</v>
@@ -6977,7 +7027,7 @@
     </row>
     <row r="93">
       <c r="A93" s="29" t="str">
-        <f>'data'!B79</f>
+        <f>'data'!$B$79</f>
       </c>
       <c r="B93" s="29"/>
       <c r="C93" s="29"/>
@@ -6985,10 +7035,10 @@
       <c r="E93" s="29"/>
       <c r="F93" s="29"/>
       <c r="G93" s="29" t="str">
-        <f>'data'!B80</f>
+        <f>'data'!$B$80</f>
       </c>
       <c r="I93" s="29" t="str">
-        <f>'data'!B82</f>
+        <f>'data'!$B$82</f>
       </c>
       <c r="J93" s="29"/>
       <c r="K93" s="29"/>
@@ -6996,9 +7046,10 @@
       <c r="M93" s="29"/>
       <c r="N93" s="29"/>
       <c r="O93" s="29" t="str">
-        <f>'data'!B83</f>
-      </c>
-    </row>
+        <f>'data'!$B$83</f>
+      </c>
+    </row>
+    <row r="94"/>
     <row r="95">
       <c r="F95" s="7" t="s">
         <v>225</v>
@@ -7019,6 +7070,8 @@
       </c>
       <c r="O96" s="23"/>
     </row>
+    <row r="97"/>
+    <row r="98"/>
     <row r="99">
       <c r="A99" s="27" t="s">
         <v>250</v>
@@ -7061,7 +7114,7 @@
     </row>
     <row r="101">
       <c r="A101" s="29" t="str">
-        <f>'data'!B85</f>
+        <f>'data'!$B$85</f>
       </c>
       <c r="B101" s="29"/>
       <c r="C101" s="29"/>
@@ -7069,10 +7122,10 @@
       <c r="E101" s="29"/>
       <c r="F101" s="29"/>
       <c r="G101" s="29" t="str">
-        <f>'data'!B86</f>
+        <f>'data'!$B$86</f>
       </c>
       <c r="I101" s="29" t="str">
-        <f>'data'!B88</f>
+        <f>'data'!$B$88</f>
       </c>
       <c r="J101" s="29"/>
       <c r="K101" s="29"/>
@@ -7080,9 +7133,10 @@
       <c r="M101" s="29"/>
       <c r="N101" s="29"/>
       <c r="O101" s="29" t="str">
-        <f>'data'!B89</f>
-      </c>
-    </row>
+        <f>'data'!$B$89</f>
+      </c>
+    </row>
+    <row r="102"/>
     <row r="103">
       <c r="F103" s="7" t="s">
         <v>225</v>
@@ -7103,6 +7157,8 @@
       </c>
       <c r="O104" s="23"/>
     </row>
+    <row r="105"/>
+    <row r="106"/>
     <row r="107">
       <c r="A107" s="27" t="s">
         <v>252</v>
@@ -7127,7 +7183,7 @@
     </row>
     <row r="109">
       <c r="A109" s="29" t="str">
-        <f>'data'!B91</f>
+        <f>'data'!$B$91</f>
       </c>
       <c r="B109" s="29"/>
       <c r="C109" s="29"/>
@@ -7135,9 +7191,10 @@
       <c r="E109" s="29"/>
       <c r="F109" s="29"/>
       <c r="G109" s="29" t="str">
-        <f>'data'!B92</f>
-      </c>
-    </row>
+        <f>'data'!$B$92</f>
+      </c>
+    </row>
+    <row r="110"/>
     <row r="111">
       <c r="F111" s="7" t="s">
         <v>225</v>
@@ -7150,6 +7207,13 @@
       </c>
       <c r="G112" s="23"/>
     </row>
+    <row r="113"/>
+    <row r="114"/>
+    <row r="115"/>
+    <row r="116"/>
+    <row r="117"/>
+    <row r="118"/>
+    <row r="119"/>
     <row r="120">
       <c r="A120" s="27" t="s">
         <v>253</v>
@@ -7169,6 +7233,7 @@
       <c r="N120" s="27"/>
       <c r="O120" s="27"/>
     </row>
+    <row r="121"/>
     <row r="122">
       <c r="A122" s="27" t="s">
         <v>254</v>
@@ -7211,7 +7276,7 @@
     </row>
     <row r="124">
       <c r="A124" s="29" t="str">
-        <f>'data'!B2</f>
+        <f>'data'!$B$2</f>
       </c>
       <c r="B124" s="29"/>
       <c r="C124" s="29"/>
@@ -7219,10 +7284,10 @@
       <c r="E124" s="29"/>
       <c r="F124" s="29"/>
       <c r="G124" s="29" t="str">
-        <f>'data'!B3</f>
+        <f>'data'!$B$3</f>
       </c>
       <c r="I124" s="29" t="str">
-        <f>'data'!B4</f>
+        <f>'data'!$B$4</f>
       </c>
       <c r="J124" s="29"/>
       <c r="K124" s="29"/>
@@ -7233,6 +7298,7 @@
         <f>CONCATENATE("M 1 ",'Elimination Matches'!G7)</f>
       </c>
     </row>
+    <row r="125"/>
     <row r="126">
       <c r="F126" s="7" t="s">
         <v>225</v>
@@ -7253,6 +7319,8 @@
       </c>
       <c r="O127" s="23"/>
     </row>
+    <row r="128"/>
+    <row r="129"/>
     <row r="130">
       <c r="A130" s="27" t="s">
         <v>256</v>
@@ -7295,7 +7363,7 @@
     </row>
     <row r="132">
       <c r="A132" s="29" t="str">
-        <f>'data'!B7</f>
+        <f>'data'!$B$7</f>
       </c>
       <c r="B132" s="29"/>
       <c r="C132" s="29"/>
@@ -7306,7 +7374,7 @@
         <f>CONCATENATE("M 2 ",'Elimination Matches'!O7)</f>
       </c>
       <c r="I132" s="29" t="str">
-        <f>'data'!B10</f>
+        <f>'data'!$B$10</f>
       </c>
       <c r="J132" s="29"/>
       <c r="K132" s="29"/>
@@ -7317,6 +7385,7 @@
         <f>CONCATENATE("M 3 ",'Elimination Matches'!G15)</f>
       </c>
     </row>
+    <row r="133"/>
     <row r="134">
       <c r="F134" s="7" t="s">
         <v>225</v>
@@ -7337,6 +7406,8 @@
       </c>
       <c r="O135" s="23"/>
     </row>
+    <row r="136"/>
+    <row r="137"/>
     <row r="138">
       <c r="A138" s="27" t="s">
         <v>258</v>
@@ -7379,7 +7450,7 @@
     </row>
     <row r="140">
       <c r="A140" s="29" t="str">
-        <f>'data'!B13</f>
+        <f>'data'!$B$13</f>
       </c>
       <c r="B140" s="29"/>
       <c r="C140" s="29"/>
@@ -7387,10 +7458,10 @@
       <c r="E140" s="29"/>
       <c r="F140" s="29"/>
       <c r="G140" s="29" t="str">
-        <f>'data'!B14</f>
+        <f>'data'!$B$14</f>
       </c>
       <c r="I140" s="29" t="str">
-        <f>'data'!B15</f>
+        <f>'data'!$B$15</f>
       </c>
       <c r="J140" s="29"/>
       <c r="K140" s="29"/>
@@ -7401,6 +7472,7 @@
         <f>CONCATENATE("M 4 ",'Elimination Matches'!O15)</f>
       </c>
     </row>
+    <row r="141"/>
     <row r="142">
       <c r="F142" s="7" t="s">
         <v>225</v>
@@ -7421,6 +7493,8 @@
       </c>
       <c r="O143" s="23"/>
     </row>
+    <row r="144"/>
+    <row r="145"/>
     <row r="146">
       <c r="A146" s="27" t="s">
         <v>260</v>
@@ -7463,7 +7537,7 @@
     </row>
     <row r="148">
       <c r="A148" s="29" t="str">
-        <f>'data'!B18</f>
+        <f>'data'!$B$18</f>
       </c>
       <c r="B148" s="29"/>
       <c r="C148" s="29"/>
@@ -7474,7 +7548,7 @@
         <f>CONCATENATE("M 5 ",'Elimination Matches'!G23)</f>
       </c>
       <c r="I148" s="29" t="str">
-        <f>'data'!B21</f>
+        <f>'data'!$B$21</f>
       </c>
       <c r="J148" s="29"/>
       <c r="K148" s="29"/>
@@ -7485,6 +7559,7 @@
         <f>CONCATENATE("M 6 ",'Elimination Matches'!O23)</f>
       </c>
     </row>
+    <row r="149"/>
     <row r="150">
       <c r="F150" s="7" t="s">
         <v>225</v>
@@ -7505,6 +7580,8 @@
       </c>
       <c r="O151" s="23"/>
     </row>
+    <row r="152"/>
+    <row r="153"/>
     <row r="154">
       <c r="A154" s="27" t="s">
         <v>262</v>
@@ -7547,7 +7624,7 @@
     </row>
     <row r="156">
       <c r="A156" s="29" t="str">
-        <f>'data'!B24</f>
+        <f>'data'!$B$24</f>
       </c>
       <c r="B156" s="29"/>
       <c r="C156" s="29"/>
@@ -7555,10 +7632,10 @@
       <c r="E156" s="29"/>
       <c r="F156" s="29"/>
       <c r="G156" s="29" t="str">
-        <f>'data'!B25</f>
+        <f>'data'!$B$25</f>
       </c>
       <c r="I156" s="29" t="str">
-        <f>'data'!B26</f>
+        <f>'data'!$B$26</f>
       </c>
       <c r="J156" s="29"/>
       <c r="K156" s="29"/>
@@ -7569,6 +7646,7 @@
         <f>CONCATENATE("M 7 ",'Elimination Matches'!G31)</f>
       </c>
     </row>
+    <row r="157"/>
     <row r="158">
       <c r="F158" s="7" t="s">
         <v>225</v>
@@ -7589,6 +7667,8 @@
       </c>
       <c r="O159" s="23"/>
     </row>
+    <row r="160"/>
+    <row r="161"/>
     <row r="162">
       <c r="A162" s="27" t="s">
         <v>264</v>
@@ -7631,7 +7711,7 @@
     </row>
     <row r="164">
       <c r="A164" s="29" t="str">
-        <f>'data'!B29</f>
+        <f>'data'!$B$29</f>
       </c>
       <c r="B164" s="29"/>
       <c r="C164" s="29"/>
@@ -7642,7 +7722,7 @@
         <f>CONCATENATE("M 8 ",'Elimination Matches'!O31)</f>
       </c>
       <c r="I164" s="29" t="str">
-        <f>'data'!B32</f>
+        <f>'data'!$B$32</f>
       </c>
       <c r="J164" s="29"/>
       <c r="K164" s="29"/>
@@ -7653,6 +7733,7 @@
         <f>CONCATENATE("M 9 ",'Elimination Matches'!G39)</f>
       </c>
     </row>
+    <row r="165"/>
     <row r="166">
       <c r="F166" s="7" t="s">
         <v>225</v>
@@ -7673,6 +7754,8 @@
       </c>
       <c r="O167" s="23"/>
     </row>
+    <row r="168"/>
+    <row r="169"/>
     <row r="170">
       <c r="A170" s="27" t="s">
         <v>266</v>
@@ -7715,7 +7798,7 @@
     </row>
     <row r="172">
       <c r="A172" s="29" t="str">
-        <f>'data'!B35</f>
+        <f>'data'!$B$35</f>
       </c>
       <c r="B172" s="29"/>
       <c r="C172" s="29"/>
@@ -7726,7 +7809,7 @@
         <f>CONCATENATE("M 10 ",'Elimination Matches'!O39)</f>
       </c>
       <c r="I172" s="29" t="str">
-        <f>'data'!B38</f>
+        <f>'data'!$B$38</f>
       </c>
       <c r="J172" s="29"/>
       <c r="K172" s="29"/>
@@ -7737,6 +7820,7 @@
         <f>CONCATENATE("M 11 ",'Elimination Matches'!G47)</f>
       </c>
     </row>
+    <row r="173"/>
     <row r="174">
       <c r="F174" s="7" t="s">
         <v>225</v>
@@ -7757,6 +7841,8 @@
       </c>
       <c r="O175" s="23"/>
     </row>
+    <row r="176"/>
+    <row r="177"/>
     <row r="178">
       <c r="A178" s="27" t="s">
         <v>268</v>
@@ -7799,7 +7885,7 @@
     </row>
     <row r="180">
       <c r="A180" s="29" t="str">
-        <f>'data'!B41</f>
+        <f>'data'!$B$41</f>
       </c>
       <c r="B180" s="29"/>
       <c r="C180" s="29"/>
@@ -7810,7 +7896,7 @@
         <f>CONCATENATE("M 12 ",'Elimination Matches'!O47)</f>
       </c>
       <c r="I180" s="29" t="str">
-        <f>'data'!B44</f>
+        <f>'data'!$B$44</f>
       </c>
       <c r="J180" s="29"/>
       <c r="K180" s="29"/>
@@ -7821,6 +7907,7 @@
         <f>CONCATENATE("M 13 ",'Elimination Matches'!G55)</f>
       </c>
     </row>
+    <row r="181"/>
     <row r="182">
       <c r="F182" s="7" t="s">
         <v>225</v>
@@ -7841,6 +7928,8 @@
       </c>
       <c r="O183" s="23"/>
     </row>
+    <row r="184"/>
+    <row r="185"/>
     <row r="186">
       <c r="A186" s="27" t="s">
         <v>270</v>
@@ -7883,7 +7972,7 @@
     </row>
     <row r="188">
       <c r="A188" s="29" t="str">
-        <f>'data'!B47</f>
+        <f>'data'!$B$47</f>
       </c>
       <c r="B188" s="29"/>
       <c r="C188" s="29"/>
@@ -7891,10 +7980,10 @@
       <c r="E188" s="29"/>
       <c r="F188" s="29"/>
       <c r="G188" s="29" t="str">
-        <f>'data'!B48</f>
+        <f>'data'!$B$48</f>
       </c>
       <c r="I188" s="29" t="str">
-        <f>'data'!B49</f>
+        <f>'data'!$B$49</f>
       </c>
       <c r="J188" s="29"/>
       <c r="K188" s="29"/>
@@ -7905,6 +7994,7 @@
         <f>CONCATENATE("M 14 ",'Elimination Matches'!O55)</f>
       </c>
     </row>
+    <row r="189"/>
     <row r="190">
       <c r="F190" s="7" t="s">
         <v>225</v>
@@ -7925,6 +8015,8 @@
       </c>
       <c r="O191" s="23"/>
     </row>
+    <row r="192"/>
+    <row r="193"/>
     <row r="194">
       <c r="A194" s="27" t="s">
         <v>272</v>
@@ -7967,7 +8059,7 @@
     </row>
     <row r="196">
       <c r="A196" s="29" t="str">
-        <f>'data'!B52</f>
+        <f>'data'!$B$52</f>
       </c>
       <c r="B196" s="29"/>
       <c r="C196" s="29"/>
@@ -7978,7 +8070,7 @@
         <f>CONCATENATE("M 15 ",'Elimination Matches'!G63)</f>
       </c>
       <c r="I196" s="29" t="str">
-        <f>'data'!B55</f>
+        <f>'data'!$B$55</f>
       </c>
       <c r="J196" s="29"/>
       <c r="K196" s="29"/>
@@ -7989,6 +8081,7 @@
         <f>CONCATENATE("M 16 ",'Elimination Matches'!O63)</f>
       </c>
     </row>
+    <row r="197"/>
     <row r="198">
       <c r="F198" s="7" t="s">
         <v>225</v>
@@ -8009,6 +8102,8 @@
       </c>
       <c r="O199" s="23"/>
     </row>
+    <row r="200"/>
+    <row r="201"/>
     <row r="202">
       <c r="A202" s="27" t="s">
         <v>274</v>
@@ -8051,7 +8146,7 @@
     </row>
     <row r="204">
       <c r="A204" s="29" t="str">
-        <f>'data'!B58</f>
+        <f>'data'!$B$58</f>
       </c>
       <c r="B204" s="29"/>
       <c r="C204" s="29"/>
@@ -8062,7 +8157,7 @@
         <f>CONCATENATE("M 17 ",'Elimination Matches'!G71)</f>
       </c>
       <c r="I204" s="29" t="str">
-        <f>'data'!B61</f>
+        <f>'data'!$B$61</f>
       </c>
       <c r="J204" s="29"/>
       <c r="K204" s="29"/>
@@ -8073,6 +8168,7 @@
         <f>CONCATENATE("M 18 ",'Elimination Matches'!O71)</f>
       </c>
     </row>
+    <row r="205"/>
     <row r="206">
       <c r="F206" s="7" t="s">
         <v>225</v>
@@ -8093,6 +8189,8 @@
       </c>
       <c r="O207" s="23"/>
     </row>
+    <row r="208"/>
+    <row r="209"/>
     <row r="210">
       <c r="A210" s="27" t="s">
         <v>276</v>
@@ -8135,7 +8233,7 @@
     </row>
     <row r="212">
       <c r="A212" s="29" t="str">
-        <f>'data'!B64</f>
+        <f>'data'!$B$64</f>
       </c>
       <c r="B212" s="29"/>
       <c r="C212" s="29"/>
@@ -8146,7 +8244,7 @@
         <f>CONCATENATE("M 19 ",'Elimination Matches'!G79)</f>
       </c>
       <c r="I212" s="29" t="str">
-        <f>'data'!B67</f>
+        <f>'data'!$B$67</f>
       </c>
       <c r="J212" s="29"/>
       <c r="K212" s="29"/>
@@ -8157,6 +8255,7 @@
         <f>CONCATENATE("M 20 ",'Elimination Matches'!O79)</f>
       </c>
     </row>
+    <row r="213"/>
     <row r="214">
       <c r="F214" s="7" t="s">
         <v>225</v>
@@ -8177,6 +8276,8 @@
       </c>
       <c r="O215" s="23"/>
     </row>
+    <row r="216"/>
+    <row r="217"/>
     <row r="218">
       <c r="A218" s="27" t="s">
         <v>278</v>
@@ -8219,7 +8320,7 @@
     </row>
     <row r="220">
       <c r="A220" s="29" t="str">
-        <f>'data'!B70</f>
+        <f>'data'!$B$70</f>
       </c>
       <c r="B220" s="29"/>
       <c r="C220" s="29"/>
@@ -8227,10 +8328,10 @@
       <c r="E220" s="29"/>
       <c r="F220" s="29"/>
       <c r="G220" s="29" t="str">
-        <f>'data'!B71</f>
+        <f>'data'!$B$71</f>
       </c>
       <c r="I220" s="29" t="str">
-        <f>'data'!B72</f>
+        <f>'data'!$B$72</f>
       </c>
       <c r="J220" s="29"/>
       <c r="K220" s="29"/>
@@ -8241,6 +8342,7 @@
         <f>CONCATENATE("M 21 ",'Elimination Matches'!G87)</f>
       </c>
     </row>
+    <row r="221"/>
     <row r="222">
       <c r="F222" s="7" t="s">
         <v>225</v>
@@ -8261,6 +8363,8 @@
       </c>
       <c r="O223" s="23"/>
     </row>
+    <row r="224"/>
+    <row r="225"/>
     <row r="226">
       <c r="A226" s="27" t="s">
         <v>280</v>
@@ -8303,7 +8407,7 @@
     </row>
     <row r="228">
       <c r="A228" s="29" t="str">
-        <f>'data'!B75</f>
+        <f>'data'!$B$75</f>
       </c>
       <c r="B228" s="29"/>
       <c r="C228" s="29"/>
@@ -8314,7 +8418,7 @@
         <f>CONCATENATE("M 22 ",'Elimination Matches'!O87)</f>
       </c>
       <c r="I228" s="29" t="str">
-        <f>'data'!B78</f>
+        <f>'data'!$B$78</f>
       </c>
       <c r="J228" s="29"/>
       <c r="K228" s="29"/>
@@ -8325,6 +8429,7 @@
         <f>CONCATENATE("M 23 ",'Elimination Matches'!G95)</f>
       </c>
     </row>
+    <row r="229"/>
     <row r="230">
       <c r="F230" s="7" t="s">
         <v>225</v>
@@ -8345,6 +8450,8 @@
       </c>
       <c r="O231" s="23"/>
     </row>
+    <row r="232"/>
+    <row r="233"/>
     <row r="234">
       <c r="A234" s="27" t="s">
         <v>282</v>
@@ -8387,7 +8494,7 @@
     </row>
     <row r="236">
       <c r="A236" s="29" t="str">
-        <f>'data'!B81</f>
+        <f>'data'!$B$81</f>
       </c>
       <c r="B236" s="29"/>
       <c r="C236" s="29"/>
@@ -8398,7 +8505,7 @@
         <f>CONCATENATE("M 24 ",'Elimination Matches'!O95)</f>
       </c>
       <c r="I236" s="29" t="str">
-        <f>'data'!B84</f>
+        <f>'data'!$B$84</f>
       </c>
       <c r="J236" s="29"/>
       <c r="K236" s="29"/>
@@ -8409,6 +8516,7 @@
         <f>CONCATENATE("M 25 ",'Elimination Matches'!G103)</f>
       </c>
     </row>
+    <row r="237"/>
     <row r="238">
       <c r="F238" s="7" t="s">
         <v>225</v>
@@ -8429,6 +8537,8 @@
       </c>
       <c r="O239" s="23"/>
     </row>
+    <row r="240"/>
+    <row r="241"/>
     <row r="242">
       <c r="A242" s="27" t="s">
         <v>284</v>
@@ -8471,7 +8581,7 @@
     </row>
     <row r="244">
       <c r="A244" s="29" t="str">
-        <f>'data'!B87</f>
+        <f>'data'!$B$87</f>
       </c>
       <c r="B244" s="29"/>
       <c r="C244" s="29"/>
@@ -8482,7 +8592,7 @@
         <f>CONCATENATE("M 26 ",'Elimination Matches'!O103)</f>
       </c>
       <c r="I244" s="29" t="str">
-        <f>'data'!B90</f>
+        <f>'data'!$B$90</f>
       </c>
       <c r="J244" s="29"/>
       <c r="K244" s="29"/>
@@ -8493,6 +8603,7 @@
         <f>CONCATENATE("M 27 ",'Elimination Matches'!G111)</f>
       </c>
     </row>
+    <row r="245"/>
     <row r="246">
       <c r="F246" s="7" t="s">
         <v>225</v>
@@ -8513,6 +8624,13 @@
       </c>
       <c r="O247" s="23"/>
     </row>
+    <row r="248"/>
+    <row r="249"/>
+    <row r="250"/>
+    <row r="251"/>
+    <row r="252"/>
+    <row r="253"/>
+    <row r="254"/>
     <row r="255">
       <c r="A255" s="27" t="s">
         <v>286</v>
@@ -8532,6 +8650,7 @@
       <c r="N255" s="27"/>
       <c r="O255" s="27"/>
     </row>
+    <row r="256"/>
     <row r="257">
       <c r="A257" s="27" t="s">
         <v>287</v>
@@ -8596,6 +8715,7 @@
         <f>CONCATENATE("M 31 ",'Elimination Matches'!O134)</f>
       </c>
     </row>
+    <row r="260"/>
     <row r="261">
       <c r="F261" s="7" t="s">
         <v>225</v>
@@ -8616,6 +8736,8 @@
       </c>
       <c r="O262" s="23"/>
     </row>
+    <row r="263"/>
+    <row r="264"/>
     <row r="265">
       <c r="A265" s="27" t="s">
         <v>289</v>
@@ -8680,6 +8802,7 @@
         <f>CONCATENATE("M 35 ",'Elimination Matches'!O150)</f>
       </c>
     </row>
+    <row r="268"/>
     <row r="269">
       <c r="F269" s="7" t="s">
         <v>225</v>
@@ -8700,6 +8823,8 @@
       </c>
       <c r="O270" s="23"/>
     </row>
+    <row r="271"/>
+    <row r="272"/>
     <row r="273">
       <c r="A273" s="27" t="s">
         <v>291</v>
@@ -8764,6 +8889,7 @@
         <f>CONCATENATE("M 39 ",'Elimination Matches'!O166)</f>
       </c>
     </row>
+    <row r="276"/>
     <row r="277">
       <c r="F277" s="7" t="s">
         <v>225</v>
@@ -8784,6 +8910,8 @@
       </c>
       <c r="O278" s="23"/>
     </row>
+    <row r="279"/>
+    <row r="280"/>
     <row r="281">
       <c r="A281" s="27" t="s">
         <v>293</v>
@@ -8848,6 +8976,7 @@
         <f>CONCATENATE("M 43 ",'Elimination Matches'!O182)</f>
       </c>
     </row>
+    <row r="284"/>
     <row r="285">
       <c r="F285" s="7" t="s">
         <v>225</v>
@@ -8868,6 +8997,8 @@
       </c>
       <c r="O286" s="23"/>
     </row>
+    <row r="287"/>
+    <row r="288"/>
     <row r="289">
       <c r="A289" s="27" t="s">
         <v>295</v>
@@ -8932,6 +9063,7 @@
         <f>CONCATENATE("M 47 ",'Elimination Matches'!O198)</f>
       </c>
     </row>
+    <row r="292"/>
     <row r="293">
       <c r="F293" s="7" t="s">
         <v>225</v>
@@ -8952,6 +9084,8 @@
       </c>
       <c r="O294" s="23"/>
     </row>
+    <row r="295"/>
+    <row r="296"/>
     <row r="297">
       <c r="A297" s="27" t="s">
         <v>297</v>
@@ -9016,6 +9150,7 @@
         <f>CONCATENATE("M 51 ",'Elimination Matches'!O214)</f>
       </c>
     </row>
+    <row r="300"/>
     <row r="301">
       <c r="F301" s="7" t="s">
         <v>225</v>
@@ -9036,6 +9171,8 @@
       </c>
       <c r="O302" s="23"/>
     </row>
+    <row r="303"/>
+    <row r="304"/>
     <row r="305">
       <c r="A305" s="27" t="s">
         <v>299</v>
@@ -9100,6 +9237,7 @@
         <f>CONCATENATE("M 55 ",'Elimination Matches'!O230)</f>
       </c>
     </row>
+    <row r="308"/>
     <row r="309">
       <c r="F309" s="7" t="s">
         <v>225</v>
@@ -9120,6 +9258,8 @@
       </c>
       <c r="O310" s="23"/>
     </row>
+    <row r="311"/>
+    <row r="312"/>
     <row r="313">
       <c r="A313" s="27" t="s">
         <v>301</v>
@@ -9184,6 +9324,7 @@
         <f>CONCATENATE("M 59 ",'Elimination Matches'!O246)</f>
       </c>
     </row>
+    <row r="316"/>
     <row r="317">
       <c r="F317" s="7" t="s">
         <v>225</v>
@@ -9204,6 +9345,13 @@
       </c>
       <c r="O318" s="23"/>
     </row>
+    <row r="319"/>
+    <row r="320"/>
+    <row r="321"/>
+    <row r="322"/>
+    <row r="323"/>
+    <row r="324"/>
+    <row r="325"/>
     <row r="326">
       <c r="A326" s="27" t="s">
         <v>303</v>
@@ -9223,6 +9371,7 @@
       <c r="N326" s="27"/>
       <c r="O326" s="27"/>
     </row>
+    <row r="327"/>
     <row r="328">
       <c r="A328" s="27" t="s">
         <v>304</v>
@@ -9287,6 +9436,7 @@
         <f>CONCATENATE("M 63 ",'Elimination Matches'!O269)</f>
       </c>
     </row>
+    <row r="331"/>
     <row r="332">
       <c r="F332" s="7" t="s">
         <v>225</v>
@@ -9307,6 +9457,8 @@
       </c>
       <c r="O333" s="23"/>
     </row>
+    <row r="334"/>
+    <row r="335"/>
     <row r="336">
       <c r="A336" s="27" t="s">
         <v>306</v>
@@ -9371,6 +9523,7 @@
         <f>CONCATENATE("M 67 ",'Elimination Matches'!O285)</f>
       </c>
     </row>
+    <row r="339"/>
     <row r="340">
       <c r="F340" s="7" t="s">
         <v>225</v>
@@ -9391,6 +9544,8 @@
       </c>
       <c r="O341" s="23"/>
     </row>
+    <row r="342"/>
+    <row r="343"/>
     <row r="344">
       <c r="A344" s="27" t="s">
         <v>308</v>
@@ -9455,6 +9610,7 @@
         <f>CONCATENATE("M 71 ",'Elimination Matches'!O301)</f>
       </c>
     </row>
+    <row r="347"/>
     <row r="348">
       <c r="F348" s="7" t="s">
         <v>225</v>
@@ -9475,6 +9631,8 @@
       </c>
       <c r="O349" s="23"/>
     </row>
+    <row r="350"/>
+    <row r="351"/>
     <row r="352">
       <c r="A352" s="27" t="s">
         <v>310</v>
@@ -9539,6 +9697,7 @@
         <f>CONCATENATE("M 75 ",'Elimination Matches'!O317)</f>
       </c>
     </row>
+    <row r="355"/>
     <row r="356">
       <c r="F356" s="7" t="s">
         <v>225</v>
@@ -9559,6 +9718,13 @@
       </c>
       <c r="O357" s="23"/>
     </row>
+    <row r="358"/>
+    <row r="359"/>
+    <row r="360"/>
+    <row r="361"/>
+    <row r="362"/>
+    <row r="363"/>
+    <row r="364"/>
     <row r="365">
       <c r="A365" s="27" t="s">
         <v>312</v>
@@ -9578,6 +9744,7 @@
       <c r="N365" s="27"/>
       <c r="O365" s="27"/>
     </row>
+    <row r="366"/>
     <row r="367">
       <c r="A367" s="27" t="s">
         <v>313</v>
@@ -9642,6 +9809,7 @@
         <f>CONCATENATE("M 79 ",'Elimination Matches'!O340)</f>
       </c>
     </row>
+    <row r="370"/>
     <row r="371">
       <c r="F371" s="7" t="s">
         <v>225</v>
@@ -9662,6 +9830,8 @@
       </c>
       <c r="O372" s="23"/>
     </row>
+    <row r="373"/>
+    <row r="374"/>
     <row r="375">
       <c r="A375" s="27" t="s">
         <v>315</v>
@@ -9726,6 +9896,7 @@
         <f>CONCATENATE("M 83 ",'Elimination Matches'!O356)</f>
       </c>
     </row>
+    <row r="378"/>
     <row r="379">
       <c r="F379" s="7" t="s">
         <v>225</v>
@@ -9746,6 +9917,13 @@
       </c>
       <c r="O380" s="23"/>
     </row>
+    <row r="381"/>
+    <row r="382"/>
+    <row r="383"/>
+    <row r="384"/>
+    <row r="385"/>
+    <row r="386"/>
+    <row r="387"/>
     <row r="388">
       <c r="A388" s="27" t="s">
         <v>317</v>
@@ -9765,6 +9943,7 @@
       <c r="N388" s="27"/>
       <c r="O388" s="27"/>
     </row>
+    <row r="389"/>
     <row r="390">
       <c r="A390" s="27" t="s">
         <v>318</v>
@@ -9829,6 +10008,7 @@
         <f>CONCATENATE("M 87 ",'Elimination Matches'!O379)</f>
       </c>
     </row>
+    <row r="393"/>
     <row r="394">
       <c r="F394" s="7" t="s">
         <v>225</v>
@@ -9849,6 +10029,13 @@
       </c>
       <c r="O395" s="23"/>
     </row>
+    <row r="396"/>
+    <row r="397"/>
+    <row r="398"/>
+    <row r="399"/>
+    <row r="400"/>
+    <row r="401"/>
+    <row r="402"/>
     <row r="403">
       <c r="A403" s="27" t="s">
         <v>320</v>
@@ -9868,6 +10055,7 @@
       <c r="N403" s="27"/>
       <c r="O403" s="27"/>
     </row>
+    <row r="404"/>
     <row r="405">
       <c r="A405" s="27" t="s">
         <v>321</v>
@@ -9903,6 +10091,7 @@
         <f>CONCATENATE("M 89 ",'Elimination Matches'!O394)</f>
       </c>
     </row>
+    <row r="408"/>
     <row r="409">
       <c r="F409" s="7" t="s">
         <v>225</v>
@@ -10042,7 +10231,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="str">
-        <f>data!D2</f>
+        <f>data!DB$2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
@@ -10054,7 +10243,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f>data!D3</f>
+        <f>data!DB$3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
@@ -10066,7 +10255,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>data!D4</f>
+        <f>data!DB$4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
@@ -10078,7 +10267,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="26" t="str">
-        <f>data!D5</f>
+        <f>data!DB$5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
@@ -10090,7 +10279,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="str">
-        <f>data!D6</f>
+        <f>data!DB$6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
@@ -10102,7 +10291,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="26" t="str">
-        <f>data!D7</f>
+        <f>data!DB$7</f>
       </c>
     </row>
     <row r="12" ht="115" customHeight="true">
@@ -10114,7 +10303,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="26" t="str">
-        <f>data!D8</f>
+        <f>data!DB$8</f>
       </c>
     </row>
     <row r="14" ht="115" customHeight="true">
@@ -10126,7 +10315,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="26" t="str">
-        <f>data!D9</f>
+        <f>data!DB$9</f>
       </c>
     </row>
     <row r="16" ht="115" customHeight="true">
@@ -10138,7 +10327,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="26" t="str">
-        <f>data!D10</f>
+        <f>data!DB$10</f>
       </c>
     </row>
     <row r="18" ht="115" customHeight="true">
@@ -10150,7 +10339,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="26" t="str">
-        <f>data!D11</f>
+        <f>data!DB$11</f>
       </c>
     </row>
     <row r="20" ht="115" customHeight="true">
@@ -10162,7 +10351,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="26" t="str">
-        <f>data!D12</f>
+        <f>data!DB$12</f>
       </c>
     </row>
     <row r="22" ht="115" customHeight="true">
@@ -10174,7 +10363,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="26" t="str">
-        <f>data!D13</f>
+        <f>data!DB$13</f>
       </c>
     </row>
     <row r="24" ht="115" customHeight="true">
@@ -10186,7 +10375,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="26" t="str">
-        <f>data!D14</f>
+        <f>data!DB$14</f>
       </c>
     </row>
     <row r="26" ht="115" customHeight="true">
@@ -10198,7 +10387,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="26" t="str">
-        <f>data!D15</f>
+        <f>data!DB$15</f>
       </c>
     </row>
     <row r="28" ht="115" customHeight="true">
@@ -10210,7 +10399,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="26" t="str">
-        <f>data!D16</f>
+        <f>data!DB$16</f>
       </c>
     </row>
     <row r="30" ht="115" customHeight="true">
@@ -10222,7 +10411,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="26" t="str">
-        <f>data!D17</f>
+        <f>data!DB$17</f>
       </c>
     </row>
     <row r="32" ht="115" customHeight="true">
@@ -10234,7 +10423,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="26" t="str">
-        <f>data!D18</f>
+        <f>data!DB$18</f>
       </c>
     </row>
     <row r="34" ht="115" customHeight="true">
@@ -10246,7 +10435,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="26" t="str">
-        <f>data!D19</f>
+        <f>data!DB$19</f>
       </c>
     </row>
     <row r="36" ht="115" customHeight="true">
@@ -10258,7 +10447,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="26" t="str">
-        <f>data!D20</f>
+        <f>data!DB$20</f>
       </c>
     </row>
     <row r="38" ht="115" customHeight="true">
@@ -10270,7 +10459,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="26" t="str">
-        <f>data!D21</f>
+        <f>data!DB$21</f>
       </c>
     </row>
     <row r="40" ht="115" customHeight="true">
@@ -10282,7 +10471,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="26" t="str">
-        <f>data!D22</f>
+        <f>data!DB$22</f>
       </c>
     </row>
     <row r="42" ht="115" customHeight="true">
@@ -10294,7 +10483,7 @@
         <v>21</v>
       </c>
       <c r="B43" s="26" t="str">
-        <f>data!D23</f>
+        <f>data!DB$23</f>
       </c>
     </row>
     <row r="44" ht="115" customHeight="true">
@@ -10306,7 +10495,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="26" t="str">
-        <f>data!D24</f>
+        <f>data!DB$24</f>
       </c>
     </row>
     <row r="46" ht="115" customHeight="true">
@@ -10318,7 +10507,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="26" t="str">
-        <f>data!D25</f>
+        <f>data!DB$25</f>
       </c>
     </row>
     <row r="48" ht="115" customHeight="true">
@@ -10330,7 +10519,7 @@
         <v>24</v>
       </c>
       <c r="B49" s="26" t="str">
-        <f>data!D26</f>
+        <f>data!DB$26</f>
       </c>
     </row>
     <row r="50" ht="115" customHeight="true">
@@ -10342,7 +10531,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="26" t="str">
-        <f>data!D27</f>
+        <f>data!DB$27</f>
       </c>
     </row>
     <row r="52" ht="115" customHeight="true">
@@ -10354,7 +10543,7 @@
         <v>26</v>
       </c>
       <c r="B53" s="26" t="str">
-        <f>data!D28</f>
+        <f>data!DB$28</f>
       </c>
     </row>
     <row r="54" ht="115" customHeight="true">
@@ -10366,7 +10555,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="26" t="str">
-        <f>data!D29</f>
+        <f>data!DB$29</f>
       </c>
     </row>
     <row r="56" ht="115" customHeight="true">
@@ -10378,7 +10567,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="26" t="str">
-        <f>data!D30</f>
+        <f>data!DB$30</f>
       </c>
     </row>
     <row r="58" ht="115" customHeight="true">
@@ -10390,7 +10579,7 @@
         <v>29</v>
       </c>
       <c r="B59" s="26" t="str">
-        <f>data!D31</f>
+        <f>data!DB$31</f>
       </c>
     </row>
     <row r="60" ht="115" customHeight="true">
@@ -10402,7 +10591,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="26" t="str">
-        <f>data!D32</f>
+        <f>data!DB$32</f>
       </c>
     </row>
     <row r="62" ht="115" customHeight="true">
@@ -10414,7 +10603,7 @@
         <v>31</v>
       </c>
       <c r="B63" s="26" t="str">
-        <f>data!D33</f>
+        <f>data!DB$33</f>
       </c>
     </row>
     <row r="64" ht="115" customHeight="true">
@@ -10426,7 +10615,7 @@
         <v>32</v>
       </c>
       <c r="B65" s="26" t="str">
-        <f>data!D34</f>
+        <f>data!DB$34</f>
       </c>
     </row>
     <row r="66" ht="115" customHeight="true">
@@ -10438,7 +10627,7 @@
         <v>33</v>
       </c>
       <c r="B67" s="26" t="str">
-        <f>data!D35</f>
+        <f>data!DB$35</f>
       </c>
     </row>
     <row r="68" ht="115" customHeight="true">
@@ -10450,7 +10639,7 @@
         <v>34</v>
       </c>
       <c r="B69" s="26" t="str">
-        <f>data!D36</f>
+        <f>data!DB$36</f>
       </c>
     </row>
     <row r="70" ht="115" customHeight="true">
@@ -10462,7 +10651,7 @@
         <v>35</v>
       </c>
       <c r="B71" s="26" t="str">
-        <f>data!D37</f>
+        <f>data!DB$37</f>
       </c>
     </row>
     <row r="72" ht="115" customHeight="true">
@@ -10474,7 +10663,7 @@
         <v>36</v>
       </c>
       <c r="B73" s="26" t="str">
-        <f>data!D38</f>
+        <f>data!DB$38</f>
       </c>
     </row>
     <row r="74" ht="115" customHeight="true">
@@ -10486,7 +10675,7 @@
         <v>37</v>
       </c>
       <c r="B75" s="26" t="str">
-        <f>data!D39</f>
+        <f>data!DB$39</f>
       </c>
     </row>
     <row r="76" ht="115" customHeight="true">
@@ -10498,7 +10687,7 @@
         <v>38</v>
       </c>
       <c r="B77" s="26" t="str">
-        <f>data!D40</f>
+        <f>data!DB$40</f>
       </c>
     </row>
     <row r="78" ht="115" customHeight="true">
@@ -10510,7 +10699,7 @@
         <v>39</v>
       </c>
       <c r="B79" s="26" t="str">
-        <f>data!D41</f>
+        <f>data!DB$41</f>
       </c>
     </row>
     <row r="80" ht="115" customHeight="true">
@@ -10522,7 +10711,7 @@
         <v>40</v>
       </c>
       <c r="B81" s="26" t="str">
-        <f>data!D42</f>
+        <f>data!DB$42</f>
       </c>
     </row>
     <row r="82" ht="115" customHeight="true">
@@ -10534,7 +10723,7 @@
         <v>41</v>
       </c>
       <c r="B83" s="26" t="str">
-        <f>data!D43</f>
+        <f>data!DB$43</f>
       </c>
     </row>
     <row r="84" ht="115" customHeight="true">
@@ -10546,7 +10735,7 @@
         <v>42</v>
       </c>
       <c r="B85" s="26" t="str">
-        <f>data!D44</f>
+        <f>data!DB$44</f>
       </c>
     </row>
     <row r="86" ht="115" customHeight="true">
@@ -10558,7 +10747,7 @@
         <v>43</v>
       </c>
       <c r="B87" s="26" t="str">
-        <f>data!D45</f>
+        <f>data!DB$45</f>
       </c>
     </row>
     <row r="88" ht="115" customHeight="true">
@@ -10570,7 +10759,7 @@
         <v>44</v>
       </c>
       <c r="B89" s="26" t="str">
-        <f>data!D46</f>
+        <f>data!DB$46</f>
       </c>
     </row>
     <row r="90" ht="115" customHeight="true">
@@ -10582,7 +10771,7 @@
         <v>45</v>
       </c>
       <c r="B91" s="26" t="str">
-        <f>data!D47</f>
+        <f>data!DB$47</f>
       </c>
     </row>
     <row r="92" ht="115" customHeight="true">
@@ -10594,7 +10783,7 @@
         <v>46</v>
       </c>
       <c r="B93" s="26" t="str">
-        <f>data!D48</f>
+        <f>data!DB$48</f>
       </c>
     </row>
     <row r="94" ht="115" customHeight="true">
@@ -10606,7 +10795,7 @@
         <v>47</v>
       </c>
       <c r="B95" s="26" t="str">
-        <f>data!D49</f>
+        <f>data!DB$49</f>
       </c>
     </row>
     <row r="96" ht="115" customHeight="true">
@@ -10618,7 +10807,7 @@
         <v>48</v>
       </c>
       <c r="B97" s="26" t="str">
-        <f>data!D50</f>
+        <f>data!DB$50</f>
       </c>
     </row>
     <row r="98" ht="115" customHeight="true">
@@ -10630,7 +10819,7 @@
         <v>49</v>
       </c>
       <c r="B99" s="26" t="str">
-        <f>data!D51</f>
+        <f>data!DB$51</f>
       </c>
     </row>
     <row r="100" ht="115" customHeight="true">
@@ -10642,7 +10831,7 @@
         <v>50</v>
       </c>
       <c r="B101" s="26" t="str">
-        <f>data!D52</f>
+        <f>data!DB$52</f>
       </c>
     </row>
     <row r="102" ht="115" customHeight="true">
@@ -10654,7 +10843,7 @@
         <v>51</v>
       </c>
       <c r="B103" s="26" t="str">
-        <f>data!D53</f>
+        <f>data!DB$53</f>
       </c>
     </row>
     <row r="104" ht="115" customHeight="true">
@@ -10666,7 +10855,7 @@
         <v>52</v>
       </c>
       <c r="B105" s="26" t="str">
-        <f>data!D54</f>
+        <f>data!DB$54</f>
       </c>
     </row>
     <row r="106" ht="115" customHeight="true">
@@ -10678,7 +10867,7 @@
         <v>53</v>
       </c>
       <c r="B107" s="26" t="str">
-        <f>data!D55</f>
+        <f>data!DB$55</f>
       </c>
     </row>
     <row r="108" ht="115" customHeight="true">
@@ -10690,7 +10879,7 @@
         <v>54</v>
       </c>
       <c r="B109" s="26" t="str">
-        <f>data!D56</f>
+        <f>data!DB$56</f>
       </c>
     </row>
     <row r="110" ht="115" customHeight="true">
@@ -10702,7 +10891,7 @@
         <v>55</v>
       </c>
       <c r="B111" s="26" t="str">
-        <f>data!D57</f>
+        <f>data!DB$57</f>
       </c>
     </row>
     <row r="112" ht="115" customHeight="true">
@@ -10714,7 +10903,7 @@
         <v>56</v>
       </c>
       <c r="B113" s="26" t="str">
-        <f>data!D58</f>
+        <f>data!DB$58</f>
       </c>
     </row>
     <row r="114" ht="115" customHeight="true">
@@ -10726,7 +10915,7 @@
         <v>57</v>
       </c>
       <c r="B115" s="26" t="str">
-        <f>data!D59</f>
+        <f>data!DB$59</f>
       </c>
     </row>
     <row r="116" ht="115" customHeight="true">
@@ -10738,7 +10927,7 @@
         <v>58</v>
       </c>
       <c r="B117" s="26" t="str">
-        <f>data!D60</f>
+        <f>data!DB$60</f>
       </c>
     </row>
     <row r="118" ht="115" customHeight="true">
@@ -10750,7 +10939,7 @@
         <v>59</v>
       </c>
       <c r="B119" s="26" t="str">
-        <f>data!D61</f>
+        <f>data!DB$61</f>
       </c>
     </row>
     <row r="120" ht="115" customHeight="true">
@@ -10762,7 +10951,7 @@
         <v>60</v>
       </c>
       <c r="B121" s="26" t="str">
-        <f>data!D62</f>
+        <f>data!DB$62</f>
       </c>
     </row>
     <row r="122" ht="115" customHeight="true">
@@ -10774,7 +10963,7 @@
         <v>61</v>
       </c>
       <c r="B123" s="26" t="str">
-        <f>data!D63</f>
+        <f>data!DB$63</f>
       </c>
     </row>
     <row r="124" ht="115" customHeight="true">
@@ -10786,7 +10975,7 @@
         <v>62</v>
       </c>
       <c r="B125" s="26" t="str">
-        <f>data!D64</f>
+        <f>data!DB$64</f>
       </c>
     </row>
     <row r="126" ht="115" customHeight="true">
@@ -10798,7 +10987,7 @@
         <v>63</v>
       </c>
       <c r="B127" s="26" t="str">
-        <f>data!D65</f>
+        <f>data!DB$65</f>
       </c>
     </row>
     <row r="128" ht="115" customHeight="true">
@@ -10810,7 +10999,7 @@
         <v>64</v>
       </c>
       <c r="B129" s="26" t="str">
-        <f>data!D66</f>
+        <f>data!DB$66</f>
       </c>
     </row>
     <row r="130" ht="115" customHeight="true">
@@ -10822,7 +11011,7 @@
         <v>65</v>
       </c>
       <c r="B131" s="26" t="str">
-        <f>data!D67</f>
+        <f>data!DB$67</f>
       </c>
     </row>
     <row r="132" ht="115" customHeight="true">
@@ -10834,7 +11023,7 @@
         <v>66</v>
       </c>
       <c r="B133" s="26" t="str">
-        <f>data!D68</f>
+        <f>data!DB$68</f>
       </c>
     </row>
     <row r="134" ht="115" customHeight="true">
@@ -10846,7 +11035,7 @@
         <v>67</v>
       </c>
       <c r="B135" s="26" t="str">
-        <f>data!D69</f>
+        <f>data!DB$69</f>
       </c>
     </row>
     <row r="136" ht="115" customHeight="true">
@@ -10858,7 +11047,7 @@
         <v>68</v>
       </c>
       <c r="B137" s="26" t="str">
-        <f>data!D70</f>
+        <f>data!DB$70</f>
       </c>
     </row>
     <row r="138" ht="115" customHeight="true">
@@ -10870,7 +11059,7 @@
         <v>69</v>
       </c>
       <c r="B139" s="26" t="str">
-        <f>data!D71</f>
+        <f>data!DB$71</f>
       </c>
     </row>
     <row r="140" ht="115" customHeight="true">
@@ -10882,7 +11071,7 @@
         <v>70</v>
       </c>
       <c r="B141" s="26" t="str">
-        <f>data!D72</f>
+        <f>data!DB$72</f>
       </c>
     </row>
     <row r="142" ht="115" customHeight="true">
@@ -10894,7 +11083,7 @@
         <v>71</v>
       </c>
       <c r="B143" s="26" t="str">
-        <f>data!D73</f>
+        <f>data!DB$73</f>
       </c>
     </row>
     <row r="144" ht="115" customHeight="true">
@@ -10906,7 +11095,7 @@
         <v>72</v>
       </c>
       <c r="B145" s="26" t="str">
-        <f>data!D74</f>
+        <f>data!DB$74</f>
       </c>
     </row>
     <row r="146" ht="115" customHeight="true">
@@ -10918,7 +11107,7 @@
         <v>73</v>
       </c>
       <c r="B147" s="26" t="str">
-        <f>data!D75</f>
+        <f>data!DB$75</f>
       </c>
     </row>
     <row r="148" ht="115" customHeight="true">
@@ -10930,7 +11119,7 @@
         <v>74</v>
       </c>
       <c r="B149" s="26" t="str">
-        <f>data!D76</f>
+        <f>data!DB$76</f>
       </c>
     </row>
     <row r="150" ht="115" customHeight="true">
@@ -10942,7 +11131,7 @@
         <v>75</v>
       </c>
       <c r="B151" s="26" t="str">
-        <f>data!D77</f>
+        <f>data!DB$77</f>
       </c>
     </row>
     <row r="152" ht="115" customHeight="true">
@@ -10954,7 +11143,7 @@
         <v>76</v>
       </c>
       <c r="B153" s="26" t="str">
-        <f>data!D78</f>
+        <f>data!DB$78</f>
       </c>
     </row>
     <row r="154" ht="115" customHeight="true">
@@ -10966,7 +11155,7 @@
         <v>77</v>
       </c>
       <c r="B155" s="26" t="str">
-        <f>data!D79</f>
+        <f>data!DB$79</f>
       </c>
     </row>
     <row r="156" ht="115" customHeight="true">
@@ -10978,7 +11167,7 @@
         <v>78</v>
       </c>
       <c r="B157" s="26" t="str">
-        <f>data!D80</f>
+        <f>data!DB$80</f>
       </c>
     </row>
     <row r="158" ht="115" customHeight="true">
@@ -10990,7 +11179,7 @@
         <v>79</v>
       </c>
       <c r="B159" s="26" t="str">
-        <f>data!D81</f>
+        <f>data!DB$81</f>
       </c>
     </row>
     <row r="160" ht="115" customHeight="true">
@@ -11002,7 +11191,7 @@
         <v>80</v>
       </c>
       <c r="B161" s="26" t="str">
-        <f>data!D82</f>
+        <f>data!DB$82</f>
       </c>
     </row>
     <row r="162" ht="115" customHeight="true">
@@ -11014,7 +11203,7 @@
         <v>81</v>
       </c>
       <c r="B163" s="26" t="str">
-        <f>data!D83</f>
+        <f>data!DB$83</f>
       </c>
     </row>
     <row r="164" ht="115" customHeight="true">
@@ -11026,7 +11215,7 @@
         <v>82</v>
       </c>
       <c r="B165" s="26" t="str">
-        <f>data!D84</f>
+        <f>data!DB$84</f>
       </c>
     </row>
     <row r="166" ht="115" customHeight="true">
@@ -11038,7 +11227,7 @@
         <v>83</v>
       </c>
       <c r="B167" s="26" t="str">
-        <f>data!D85</f>
+        <f>data!DB$85</f>
       </c>
     </row>
     <row r="168" ht="115" customHeight="true">
@@ -11050,7 +11239,7 @@
         <v>84</v>
       </c>
       <c r="B169" s="26" t="str">
-        <f>data!D86</f>
+        <f>data!DB$86</f>
       </c>
     </row>
     <row r="170" ht="115" customHeight="true">
@@ -11062,7 +11251,7 @@
         <v>85</v>
       </c>
       <c r="B171" s="26" t="str">
-        <f>data!D87</f>
+        <f>data!DB$87</f>
       </c>
     </row>
     <row r="172" ht="115" customHeight="true">
@@ -11074,7 +11263,7 @@
         <v>86</v>
       </c>
       <c r="B173" s="26" t="str">
-        <f>data!D88</f>
+        <f>data!DB$88</f>
       </c>
     </row>
     <row r="174" ht="115" customHeight="true">
@@ -11086,7 +11275,7 @@
         <v>87</v>
       </c>
       <c r="B175" s="26" t="str">
-        <f>data!D89</f>
+        <f>data!DB$89</f>
       </c>
     </row>
     <row r="176" ht="115" customHeight="true">
@@ -11098,7 +11287,7 @@
         <v>88</v>
       </c>
       <c r="B177" s="26" t="str">
-        <f>data!D90</f>
+        <f>data!DB$90</f>
       </c>
     </row>
     <row r="178" ht="115" customHeight="true">
@@ -11110,7 +11299,7 @@
         <v>89</v>
       </c>
       <c r="B179" s="26" t="str">
-        <f>data!D91</f>
+        <f>data!DB$91</f>
       </c>
     </row>
     <row r="180" ht="115" customHeight="true">
@@ -11122,7 +11311,7 @@
         <v>90</v>
       </c>
       <c r="B181" s="26" t="str">
-        <f>data!D92</f>
+        <f>data!DB$92</f>
       </c>
     </row>
     <row r="182" ht="115" customHeight="true">

--- a/playoffs-example-large.xlsx
+++ b/playoffs-example-large.xlsx
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="316">
   <si>
     <t>Elimination Round 1</t>
   </si>
@@ -988,31 +988,13 @@
     <t>Elimination Round 5</t>
   </si>
   <si>
-    <t>Match 84</t>
-  </si>
-  <si>
-    <t>Match 85</t>
-  </si>
-  <si>
-    <t>Match 86</t>
-  </si>
-  <si>
-    <t>Match 87</t>
+    <t>Match 0</t>
   </si>
   <si>
     <t>Elimination Round 6</t>
   </si>
   <si>
-    <t>Match 88</t>
-  </si>
-  <si>
-    <t>Match 89</t>
-  </si>
-  <si>
     <t>Elimination Round 7</t>
-  </si>
-  <si>
-    <t>Match 90</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1219,39 +1201,38 @@
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
       <top style="medium">
         <color rgb="FF000000"/>
       </top>
-      <bottom/>
-      <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -1266,7 +1247,6 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -1334,289 +1314,289 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="9" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="10" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9756,7 +9736,7 @@
       <c r="F367" s="27"/>
       <c r="G367" s="27"/>
       <c r="I367" s="27" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J367" s="27"/>
       <c r="K367" s="27"/>
@@ -9834,7 +9814,7 @@
     <row r="374"/>
     <row r="375">
       <c r="A375" s="27" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B375" s="27"/>
       <c r="C375" s="27"/>
@@ -9843,7 +9823,7 @@
       <c r="F375" s="27"/>
       <c r="G375" s="27"/>
       <c r="I375" s="27" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="J375" s="27"/>
       <c r="K375" s="27"/>
@@ -9926,7 +9906,7 @@
     <row r="387"/>
     <row r="388">
       <c r="A388" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="B388" s="27"/>
       <c r="C388" s="27"/>
@@ -9946,7 +9926,7 @@
     <row r="389"/>
     <row r="390">
       <c r="A390" s="27" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B390" s="27"/>
       <c r="C390" s="27"/>
@@ -9955,7 +9935,7 @@
       <c r="F390" s="27"/>
       <c r="G390" s="27"/>
       <c r="I390" s="27" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="J390" s="27"/>
       <c r="K390" s="27"/>
@@ -9986,7 +9966,7 @@
     </row>
     <row r="392">
       <c r="A392" s="29" t="str">
-        <f>CONCATENATE("M 84 ",'Elimination Matches'!G371)</f>
+        <f>CONCATENATE("M 0 ",'Elimination Matches'!O379)</f>
       </c>
       <c r="B392" s="29"/>
       <c r="C392" s="29"/>
@@ -9994,10 +9974,10 @@
       <c r="E392" s="29"/>
       <c r="F392" s="29"/>
       <c r="G392" s="29" t="str">
-        <f>CONCATENATE("M 85 ",'Elimination Matches'!O371)</f>
+        <f>CONCATENATE("M 0 ",'Elimination Matches'!O379)</f>
       </c>
       <c r="I392" s="29" t="str">
-        <f>CONCATENATE("M 86 ",'Elimination Matches'!G379)</f>
+        <f>CONCATENATE("M 0 ",'Elimination Matches'!G394)</f>
       </c>
       <c r="J392" s="29"/>
       <c r="K392" s="29"/>
@@ -10005,7 +9985,7 @@
       <c r="M392" s="29"/>
       <c r="N392" s="29"/>
       <c r="O392" s="29" t="str">
-        <f>CONCATENATE("M 87 ",'Elimination Matches'!O379)</f>
+        <f>CONCATENATE("M 0 ",'Elimination Matches'!G394)</f>
       </c>
     </row>
     <row r="393"/>
@@ -10038,7 +10018,7 @@
     <row r="402"/>
     <row r="403">
       <c r="A403" s="27" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B403" s="27"/>
       <c r="C403" s="27"/>
@@ -10058,7 +10038,7 @@
     <row r="404"/>
     <row r="405">
       <c r="A405" s="27" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B405" s="27"/>
       <c r="C405" s="27"/>
@@ -10080,7 +10060,7 @@
     </row>
     <row r="407">
       <c r="A407" s="29" t="str">
-        <f>CONCATENATE("M 88 ",'Elimination Matches'!G394)</f>
+        <f>CONCATENATE("M 0 ",'Elimination Matches'!O394)</f>
       </c>
       <c r="B407" s="29"/>
       <c r="C407" s="29"/>
@@ -10088,7 +10068,7 @@
       <c r="E407" s="29"/>
       <c r="F407" s="29"/>
       <c r="G407" s="29" t="str">
-        <f>CONCATENATE("M 89 ",'Elimination Matches'!O394)</f>
+        <f>CONCATENATE("M 0 ",'Elimination Matches'!O394)</f>
       </c>
     </row>
     <row r="408"/>
@@ -10231,7 +10211,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="26" t="str">
-        <f>data!DB$2</f>
+        <f>data!D2</f>
       </c>
     </row>
     <row r="2" ht="115" customHeight="true">
@@ -10243,7 +10223,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="26" t="str">
-        <f>data!DB$3</f>
+        <f>data!D3</f>
       </c>
     </row>
     <row r="4" ht="115" customHeight="true">
@@ -10255,7 +10235,7 @@
         <v>2</v>
       </c>
       <c r="B5" s="26" t="str">
-        <f>data!DB$4</f>
+        <f>data!D4</f>
       </c>
     </row>
     <row r="6" ht="115" customHeight="true">
@@ -10267,7 +10247,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="26" t="str">
-        <f>data!DB$5</f>
+        <f>data!D5</f>
       </c>
     </row>
     <row r="8" ht="115" customHeight="true">
@@ -10279,7 +10259,7 @@
         <v>4</v>
       </c>
       <c r="B9" s="26" t="str">
-        <f>data!DB$6</f>
+        <f>data!D6</f>
       </c>
     </row>
     <row r="10" ht="115" customHeight="true">
@@ -10291,7 +10271,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="26" t="str">
-        <f>data!DB$7</f>
+        <f>data!D7</f>
       </c>
     </row>
     <row r="12" ht="115" customHeight="true">
@@ -10303,7 +10283,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="26" t="str">
-        <f>data!DB$8</f>
+        <f>data!D8</f>
       </c>
     </row>
     <row r="14" ht="115" customHeight="true">
@@ -10315,7 +10295,7 @@
         <v>7</v>
       </c>
       <c r="B15" s="26" t="str">
-        <f>data!DB$9</f>
+        <f>data!D9</f>
       </c>
     </row>
     <row r="16" ht="115" customHeight="true">
@@ -10327,7 +10307,7 @@
         <v>8</v>
       </c>
       <c r="B17" s="26" t="str">
-        <f>data!DB$10</f>
+        <f>data!D10</f>
       </c>
     </row>
     <row r="18" ht="115" customHeight="true">
@@ -10339,7 +10319,7 @@
         <v>9</v>
       </c>
       <c r="B19" s="26" t="str">
-        <f>data!DB$11</f>
+        <f>data!D11</f>
       </c>
     </row>
     <row r="20" ht="115" customHeight="true">
@@ -10351,7 +10331,7 @@
         <v>10</v>
       </c>
       <c r="B21" s="26" t="str">
-        <f>data!DB$12</f>
+        <f>data!D12</f>
       </c>
     </row>
     <row r="22" ht="115" customHeight="true">
@@ -10363,7 +10343,7 @@
         <v>11</v>
       </c>
       <c r="B23" s="26" t="str">
-        <f>data!DB$13</f>
+        <f>data!D13</f>
       </c>
     </row>
     <row r="24" ht="115" customHeight="true">
@@ -10375,7 +10355,7 @@
         <v>12</v>
       </c>
       <c r="B25" s="26" t="str">
-        <f>data!DB$14</f>
+        <f>data!D14</f>
       </c>
     </row>
     <row r="26" ht="115" customHeight="true">
@@ -10387,7 +10367,7 @@
         <v>13</v>
       </c>
       <c r="B27" s="26" t="str">
-        <f>data!DB$15</f>
+        <f>data!D15</f>
       </c>
     </row>
     <row r="28" ht="115" customHeight="true">
@@ -10399,7 +10379,7 @@
         <v>14</v>
       </c>
       <c r="B29" s="26" t="str">
-        <f>data!DB$16</f>
+        <f>data!D16</f>
       </c>
     </row>
     <row r="30" ht="115" customHeight="true">
@@ -10411,7 +10391,7 @@
         <v>15</v>
       </c>
       <c r="B31" s="26" t="str">
-        <f>data!DB$17</f>
+        <f>data!D17</f>
       </c>
     </row>
     <row r="32" ht="115" customHeight="true">
@@ -10423,7 +10403,7 @@
         <v>16</v>
       </c>
       <c r="B33" s="26" t="str">
-        <f>data!DB$18</f>
+        <f>data!D18</f>
       </c>
     </row>
     <row r="34" ht="115" customHeight="true">
@@ -10435,7 +10415,7 @@
         <v>17</v>
       </c>
       <c r="B35" s="26" t="str">
-        <f>data!DB$19</f>
+        <f>data!D19</f>
       </c>
     </row>
     <row r="36" ht="115" customHeight="true">
@@ -10447,7 +10427,7 @@
         <v>18</v>
       </c>
       <c r="B37" s="26" t="str">
-        <f>data!DB$20</f>
+        <f>data!D20</f>
       </c>
     </row>
     <row r="38" ht="115" customHeight="true">
@@ -10459,7 +10439,7 @@
         <v>19</v>
       </c>
       <c r="B39" s="26" t="str">
-        <f>data!DB$21</f>
+        <f>data!D21</f>
       </c>
     </row>
     <row r="40" ht="115" customHeight="true">
@@ -10471,7 +10451,7 @@
         <v>20</v>
       </c>
       <c r="B41" s="26" t="str">
-        <f>data!DB$22</f>
+        <f>data!D22</f>
       </c>
     </row>
     <row r="42" ht="115" customHeight="true">
@@ -10483,7 +10463,7 @@
         <v>21</v>
       </c>
       <c r="B43" s="26" t="str">
-        <f>data!DB$23</f>
+        <f>data!D23</f>
       </c>
     </row>
     <row r="44" ht="115" customHeight="true">
@@ -10495,7 +10475,7 @@
         <v>22</v>
       </c>
       <c r="B45" s="26" t="str">
-        <f>data!DB$24</f>
+        <f>data!D24</f>
       </c>
     </row>
     <row r="46" ht="115" customHeight="true">
@@ -10507,7 +10487,7 @@
         <v>23</v>
       </c>
       <c r="B47" s="26" t="str">
-        <f>data!DB$25</f>
+        <f>data!D25</f>
       </c>
     </row>
     <row r="48" ht="115" customHeight="true">
@@ -10519,7 +10499,7 @@
         <v>24</v>
       </c>
       <c r="B49" s="26" t="str">
-        <f>data!DB$26</f>
+        <f>data!D26</f>
       </c>
     </row>
     <row r="50" ht="115" customHeight="true">
@@ -10531,7 +10511,7 @@
         <v>25</v>
       </c>
       <c r="B51" s="26" t="str">
-        <f>data!DB$27</f>
+        <f>data!D27</f>
       </c>
     </row>
     <row r="52" ht="115" customHeight="true">
@@ -10543,7 +10523,7 @@
         <v>26</v>
       </c>
       <c r="B53" s="26" t="str">
-        <f>data!DB$28</f>
+        <f>data!D28</f>
       </c>
     </row>
     <row r="54" ht="115" customHeight="true">
@@ -10555,7 +10535,7 @@
         <v>27</v>
       </c>
       <c r="B55" s="26" t="str">
-        <f>data!DB$29</f>
+        <f>data!D29</f>
       </c>
     </row>
     <row r="56" ht="115" customHeight="true">
@@ -10567,7 +10547,7 @@
         <v>28</v>
       </c>
       <c r="B57" s="26" t="str">
-        <f>data!DB$30</f>
+        <f>data!D30</f>
       </c>
     </row>
     <row r="58" ht="115" customHeight="true">
@@ -10579,7 +10559,7 @@
         <v>29</v>
       </c>
       <c r="B59" s="26" t="str">
-        <f>data!DB$31</f>
+        <f>data!D31</f>
       </c>
     </row>
     <row r="60" ht="115" customHeight="true">
@@ -10591,7 +10571,7 @@
         <v>30</v>
       </c>
       <c r="B61" s="26" t="str">
-        <f>data!DB$32</f>
+        <f>data!D32</f>
       </c>
     </row>
     <row r="62" ht="115" customHeight="true">
@@ -10603,7 +10583,7 @@
         <v>31</v>
       </c>
       <c r="B63" s="26" t="str">
-        <f>data!DB$33</f>
+        <f>data!D33</f>
       </c>
     </row>
     <row r="64" ht="115" customHeight="true">
@@ -10615,7 +10595,7 @@
         <v>32</v>
       </c>
       <c r="B65" s="26" t="str">
-        <f>data!DB$34</f>
+        <f>data!D34</f>
       </c>
     </row>
     <row r="66" ht="115" customHeight="true">
@@ -10627,7 +10607,7 @@
         <v>33</v>
       </c>
       <c r="B67" s="26" t="str">
-        <f>data!DB$35</f>
+        <f>data!D35</f>
       </c>
     </row>
     <row r="68" ht="115" customHeight="true">
@@ -10639,7 +10619,7 @@
         <v>34</v>
       </c>
       <c r="B69" s="26" t="str">
-        <f>data!DB$36</f>
+        <f>data!D36</f>
       </c>
     </row>
     <row r="70" ht="115" customHeight="true">
@@ -10651,7 +10631,7 @@
         <v>35</v>
       </c>
       <c r="B71" s="26" t="str">
-        <f>data!DB$37</f>
+        <f>data!D37</f>
       </c>
     </row>
     <row r="72" ht="115" customHeight="true">
@@ -10663,7 +10643,7 @@
         <v>36</v>
       </c>
       <c r="B73" s="26" t="str">
-        <f>data!DB$38</f>
+        <f>data!D38</f>
       </c>
     </row>
     <row r="74" ht="115" customHeight="true">
@@ -10675,7 +10655,7 @@
         <v>37</v>
       </c>
       <c r="B75" s="26" t="str">
-        <f>data!DB$39</f>
+        <f>data!D39</f>
       </c>
     </row>
     <row r="76" ht="115" customHeight="true">
@@ -10687,7 +10667,7 @@
         <v>38</v>
       </c>
       <c r="B77" s="26" t="str">
-        <f>data!DB$40</f>
+        <f>data!D40</f>
       </c>
     </row>
     <row r="78" ht="115" customHeight="true">
@@ -10699,7 +10679,7 @@
         <v>39</v>
       </c>
       <c r="B79" s="26" t="str">
-        <f>data!DB$41</f>
+        <f>data!D41</f>
       </c>
     </row>
     <row r="80" ht="115" customHeight="true">
@@ -10711,7 +10691,7 @@
         <v>40</v>
       </c>
       <c r="B81" s="26" t="str">
-        <f>data!DB$42</f>
+        <f>data!D42</f>
       </c>
     </row>
     <row r="82" ht="115" customHeight="true">
@@ -10723,7 +10703,7 @@
         <v>41</v>
       </c>
       <c r="B83" s="26" t="str">
-        <f>data!DB$43</f>
+        <f>data!D43</f>
       </c>
     </row>
     <row r="84" ht="115" customHeight="true">
@@ -10735,7 +10715,7 @@
         <v>42</v>
       </c>
       <c r="B85" s="26" t="str">
-        <f>data!DB$44</f>
+        <f>data!D44</f>
       </c>
     </row>
     <row r="86" ht="115" customHeight="true">
@@ -10747,7 +10727,7 @@
         <v>43</v>
       </c>
       <c r="B87" s="26" t="str">
-        <f>data!DB$45</f>
+        <f>data!D45</f>
       </c>
     </row>
     <row r="88" ht="115" customHeight="true">
@@ -10759,7 +10739,7 @@
         <v>44</v>
       </c>
       <c r="B89" s="26" t="str">
-        <f>data!DB$46</f>
+        <f>data!D46</f>
       </c>
     </row>
     <row r="90" ht="115" customHeight="true">
@@ -10771,7 +10751,7 @@
         <v>45</v>
       </c>
       <c r="B91" s="26" t="str">
-        <f>data!DB$47</f>
+        <f>data!D47</f>
       </c>
     </row>
     <row r="92" ht="115" customHeight="true">
@@ -10783,7 +10763,7 @@
         <v>46</v>
       </c>
       <c r="B93" s="26" t="str">
-        <f>data!DB$48</f>
+        <f>data!D48</f>
       </c>
     </row>
     <row r="94" ht="115" customHeight="true">
@@ -10795,7 +10775,7 @@
         <v>47</v>
       </c>
       <c r="B95" s="26" t="str">
-        <f>data!DB$49</f>
+        <f>data!D49</f>
       </c>
     </row>
     <row r="96" ht="115" customHeight="true">
@@ -10807,7 +10787,7 @@
         <v>48</v>
       </c>
       <c r="B97" s="26" t="str">
-        <f>data!DB$50</f>
+        <f>data!D50</f>
       </c>
     </row>
     <row r="98" ht="115" customHeight="true">
@@ -10819,7 +10799,7 @@
         <v>49</v>
       </c>
       <c r="B99" s="26" t="str">
-        <f>data!DB$51</f>
+        <f>data!D51</f>
       </c>
     </row>
     <row r="100" ht="115" customHeight="true">
@@ -10831,7 +10811,7 @@
         <v>50</v>
       </c>
       <c r="B101" s="26" t="str">
-        <f>data!DB$52</f>
+        <f>data!D52</f>
       </c>
     </row>
     <row r="102" ht="115" customHeight="true">
@@ -10843,7 +10823,7 @@
         <v>51</v>
       </c>
       <c r="B103" s="26" t="str">
-        <f>data!DB$53</f>
+        <f>data!D53</f>
       </c>
     </row>
     <row r="104" ht="115" customHeight="true">
@@ -10855,7 +10835,7 @@
         <v>52</v>
       </c>
       <c r="B105" s="26" t="str">
-        <f>data!DB$54</f>
+        <f>data!D54</f>
       </c>
     </row>
     <row r="106" ht="115" customHeight="true">
@@ -10867,7 +10847,7 @@
         <v>53</v>
       </c>
       <c r="B107" s="26" t="str">
-        <f>data!DB$55</f>
+        <f>data!D55</f>
       </c>
     </row>
     <row r="108" ht="115" customHeight="true">
@@ -10879,7 +10859,7 @@
         <v>54</v>
       </c>
       <c r="B109" s="26" t="str">
-        <f>data!DB$56</f>
+        <f>data!D56</f>
       </c>
     </row>
     <row r="110" ht="115" customHeight="true">
@@ -10891,7 +10871,7 @@
         <v>55</v>
       </c>
       <c r="B111" s="26" t="str">
-        <f>data!DB$57</f>
+        <f>data!D57</f>
       </c>
     </row>
     <row r="112" ht="115" customHeight="true">
@@ -10903,7 +10883,7 @@
         <v>56</v>
       </c>
       <c r="B113" s="26" t="str">
-        <f>data!DB$58</f>
+        <f>data!D58</f>
       </c>
     </row>
     <row r="114" ht="115" customHeight="true">
@@ -10915,7 +10895,7 @@
         <v>57</v>
       </c>
       <c r="B115" s="26" t="str">
-        <f>data!DB$59</f>
+        <f>data!D59</f>
       </c>
     </row>
     <row r="116" ht="115" customHeight="true">
@@ -10927,7 +10907,7 @@
         <v>58</v>
       </c>
       <c r="B117" s="26" t="str">
-        <f>data!DB$60</f>
+        <f>data!D60</f>
       </c>
     </row>
     <row r="118" ht="115" customHeight="true">
@@ -10939,7 +10919,7 @@
         <v>59</v>
       </c>
       <c r="B119" s="26" t="str">
-        <f>data!DB$61</f>
+        <f>data!D61</f>
       </c>
     </row>
     <row r="120" ht="115" customHeight="true">
@@ -10951,7 +10931,7 @@
         <v>60</v>
       </c>
       <c r="B121" s="26" t="str">
-        <f>data!DB$62</f>
+        <f>data!D62</f>
       </c>
     </row>
     <row r="122" ht="115" customHeight="true">
@@ -10963,7 +10943,7 @@
         <v>61</v>
       </c>
       <c r="B123" s="26" t="str">
-        <f>data!DB$63</f>
+        <f>data!D63</f>
       </c>
     </row>
     <row r="124" ht="115" customHeight="true">
@@ -10975,7 +10955,7 @@
         <v>62</v>
       </c>
       <c r="B125" s="26" t="str">
-        <f>data!DB$64</f>
+        <f>data!D64</f>
       </c>
     </row>
     <row r="126" ht="115" customHeight="true">
@@ -10987,7 +10967,7 @@
         <v>63</v>
       </c>
       <c r="B127" s="26" t="str">
-        <f>data!DB$65</f>
+        <f>data!D65</f>
       </c>
     </row>
     <row r="128" ht="115" customHeight="true">
@@ -10999,7 +10979,7 @@
         <v>64</v>
       </c>
       <c r="B129" s="26" t="str">
-        <f>data!DB$66</f>
+        <f>data!D66</f>
       </c>
     </row>
     <row r="130" ht="115" customHeight="true">
@@ -11011,7 +10991,7 @@
         <v>65</v>
       </c>
       <c r="B131" s="26" t="str">
-        <f>data!DB$67</f>
+        <f>data!D67</f>
       </c>
     </row>
     <row r="132" ht="115" customHeight="true">
@@ -11023,7 +11003,7 @@
         <v>66</v>
       </c>
       <c r="B133" s="26" t="str">
-        <f>data!DB$68</f>
+        <f>data!D68</f>
       </c>
     </row>
     <row r="134" ht="115" customHeight="true">
@@ -11035,7 +11015,7 @@
         <v>67</v>
       </c>
       <c r="B135" s="26" t="str">
-        <f>data!DB$69</f>
+        <f>data!D69</f>
       </c>
     </row>
     <row r="136" ht="115" customHeight="true">
@@ -11047,7 +11027,7 @@
         <v>68</v>
       </c>
       <c r="B137" s="26" t="str">
-        <f>data!DB$70</f>
+        <f>data!D70</f>
       </c>
     </row>
     <row r="138" ht="115" customHeight="true">
@@ -11059,7 +11039,7 @@
         <v>69</v>
       </c>
       <c r="B139" s="26" t="str">
-        <f>data!DB$71</f>
+        <f>data!D71</f>
       </c>
     </row>
     <row r="140" ht="115" customHeight="true">
@@ -11071,7 +11051,7 @@
         <v>70</v>
       </c>
       <c r="B141" s="26" t="str">
-        <f>data!DB$72</f>
+        <f>data!D72</f>
       </c>
     </row>
     <row r="142" ht="115" customHeight="true">
@@ -11083,7 +11063,7 @@
         <v>71</v>
       </c>
       <c r="B143" s="26" t="str">
-        <f>data!DB$73</f>
+        <f>data!D73</f>
       </c>
     </row>
     <row r="144" ht="115" customHeight="true">
@@ -11095,7 +11075,7 @@
         <v>72</v>
       </c>
       <c r="B145" s="26" t="str">
-        <f>data!DB$74</f>
+        <f>data!D74</f>
       </c>
     </row>
     <row r="146" ht="115" customHeight="true">
@@ -11107,7 +11087,7 @@
         <v>73</v>
       </c>
       <c r="B147" s="26" t="str">
-        <f>data!DB$75</f>
+        <f>data!D75</f>
       </c>
     </row>
     <row r="148" ht="115" customHeight="true">
@@ -11119,7 +11099,7 @@
         <v>74</v>
       </c>
       <c r="B149" s="26" t="str">
-        <f>data!DB$76</f>
+        <f>data!D76</f>
       </c>
     </row>
     <row r="150" ht="115" customHeight="true">
@@ -11131,7 +11111,7 @@
         <v>75</v>
       </c>
       <c r="B151" s="26" t="str">
-        <f>data!DB$77</f>
+        <f>data!D77</f>
       </c>
     </row>
     <row r="152" ht="115" customHeight="true">
@@ -11143,7 +11123,7 @@
         <v>76</v>
       </c>
       <c r="B153" s="26" t="str">
-        <f>data!DB$78</f>
+        <f>data!D78</f>
       </c>
     </row>
     <row r="154" ht="115" customHeight="true">
@@ -11155,7 +11135,7 @@
         <v>77</v>
       </c>
       <c r="B155" s="26" t="str">
-        <f>data!DB$79</f>
+        <f>data!D79</f>
       </c>
     </row>
     <row r="156" ht="115" customHeight="true">
@@ -11167,7 +11147,7 @@
         <v>78</v>
       </c>
       <c r="B157" s="26" t="str">
-        <f>data!DB$80</f>
+        <f>data!D80</f>
       </c>
     </row>
     <row r="158" ht="115" customHeight="true">
@@ -11179,7 +11159,7 @@
         <v>79</v>
       </c>
       <c r="B159" s="26" t="str">
-        <f>data!DB$81</f>
+        <f>data!D81</f>
       </c>
     </row>
     <row r="160" ht="115" customHeight="true">
@@ -11191,7 +11171,7 @@
         <v>80</v>
       </c>
       <c r="B161" s="26" t="str">
-        <f>data!DB$82</f>
+        <f>data!D82</f>
       </c>
     </row>
     <row r="162" ht="115" customHeight="true">
@@ -11203,7 +11183,7 @@
         <v>81</v>
       </c>
       <c r="B163" s="26" t="str">
-        <f>data!DB$83</f>
+        <f>data!D83</f>
       </c>
     </row>
     <row r="164" ht="115" customHeight="true">
@@ -11215,7 +11195,7 @@
         <v>82</v>
       </c>
       <c r="B165" s="26" t="str">
-        <f>data!DB$84</f>
+        <f>data!D84</f>
       </c>
     </row>
     <row r="166" ht="115" customHeight="true">
@@ -11227,7 +11207,7 @@
         <v>83</v>
       </c>
       <c r="B167" s="26" t="str">
-        <f>data!DB$85</f>
+        <f>data!D85</f>
       </c>
     </row>
     <row r="168" ht="115" customHeight="true">
@@ -11239,7 +11219,7 @@
         <v>84</v>
       </c>
       <c r="B169" s="26" t="str">
-        <f>data!DB$86</f>
+        <f>data!D86</f>
       </c>
     </row>
     <row r="170" ht="115" customHeight="true">
@@ -11251,7 +11231,7 @@
         <v>85</v>
       </c>
       <c r="B171" s="26" t="str">
-        <f>data!DB$87</f>
+        <f>data!D87</f>
       </c>
     </row>
     <row r="172" ht="115" customHeight="true">
@@ -11263,7 +11243,7 @@
         <v>86</v>
       </c>
       <c r="B173" s="26" t="str">
-        <f>data!DB$88</f>
+        <f>data!D88</f>
       </c>
     </row>
     <row r="174" ht="115" customHeight="true">
@@ -11275,7 +11255,7 @@
         <v>87</v>
       </c>
       <c r="B175" s="26" t="str">
-        <f>data!DB$89</f>
+        <f>data!D89</f>
       </c>
     </row>
     <row r="176" ht="115" customHeight="true">
@@ -11287,7 +11267,7 @@
         <v>88</v>
       </c>
       <c r="B177" s="26" t="str">
-        <f>data!DB$90</f>
+        <f>data!D90</f>
       </c>
     </row>
     <row r="178" ht="115" customHeight="true">
@@ -11299,7 +11279,7 @@
         <v>89</v>
       </c>
       <c r="B179" s="26" t="str">
-        <f>data!DB$91</f>
+        <f>data!D91</f>
       </c>
     </row>
     <row r="180" ht="115" customHeight="true">
@@ -11311,7 +11291,7 @@
         <v>90</v>
       </c>
       <c r="B181" s="26" t="str">
-        <f>data!DB$92</f>
+        <f>data!D92</f>
       </c>
     </row>
     <row r="182" ht="115" customHeight="true">

--- a/playoffs-example-large.xlsx
+++ b/playoffs-example-large.xlsx
@@ -1006,116 +1006,111 @@
   </numFmts>
   <fonts count="16">
     <font>
+      <name val="Arial"/>
+      <color rgb="FF000000"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="10"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <u/>
-      <sz val="16"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="16"/>
+      <u/>
     </font>
     <font>
-      <b val="1"/>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="12"/>
+      <u/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="12"/>
     </font>
     <font>
+      <name val="Arial"/>
+      <family val="2"/>
       <b val="1"/>
       <i val="1"/>
+      <color theme="1"/>
       <sz val="12"/>
-      <color theme="1"/>
+    </font>
+    <font>
       <name val="Arial"/>
       <family val="2"/>
-    </font>
-    <font>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="12"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="72"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="72"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
-      <sz val="28"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+      <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="28"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="FF000000"/>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="28"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
+      <color rgb="FF000000"/>
       <sz val="110"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
+      <family val="2"/>
       <b val="1"/>
+      <color rgb="FFFFFFFF"/>
       <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
